--- a/example_participants.xlsx
+++ b/example_participants.xlsx
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://logoyazilim-my.sharepoint.com/personal/berk_sengul_logo_com_tr/Documents/Desktop/projects/table_tennis_tournament_management_backend/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="96" documentId="11_DAAD709F83108544EE310D50FFB0AFA12747B990" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9F4FBF5-1F13-4194-A242-FB2DC28DF520}"/>
+  <xr:revisionPtr revIDLastSave="136" documentId="11_DAAD709F83108544EE310D50FFB0AFA12747B990" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65DF8276-B8D5-4288-9E84-531A20E30B8F}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Form Yanıtları 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -186,7 +199,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1986" uniqueCount="1026">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2040" uniqueCount="1047">
   <si>
     <t>Zaman damgası</t>
   </si>
@@ -734,13 +747,7 @@
     <t>05363168608</t>
   </si>
   <si>
-    <t xml:space="preserve">Mahmut Tolga Toksöz </t>
-  </si>
-  <si>
     <t>mahmuttolgatoksoz@gmail.com</t>
-  </si>
-  <si>
-    <t>11.10.1974</t>
   </si>
   <si>
     <t xml:space="preserve">Orta Defansif </t>
@@ -1642,9 +1649,6 @@
     <t>sahidetemizkanli@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Mahmud zeytuni </t>
-  </si>
-  <si>
     <t>mmttyy1111z@gmail.com</t>
   </si>
   <si>
@@ -1660,9 +1664,6 @@
     <t>05362194302</t>
   </si>
   <si>
-    <t xml:space="preserve">Funda Öner </t>
-  </si>
-  <si>
     <t>fjojoba@gmail.com</t>
   </si>
   <si>
@@ -1744,15 +1745,9 @@
     <t>15.06.1946</t>
   </si>
   <si>
-    <t>Kemal Sağ</t>
-  </si>
-  <si>
     <t>kemalsag1@gmail.com</t>
   </si>
   <si>
-    <t>01.01.1955</t>
-  </si>
-  <si>
     <t>Adana</t>
   </si>
   <si>
@@ -1786,15 +1781,9 @@
     <t>05422043589</t>
   </si>
   <si>
-    <t>Sadullah Şen</t>
-  </si>
-  <si>
     <t>sadullahsen53@gmail.com</t>
   </si>
   <si>
-    <t>28.09.1953</t>
-  </si>
-  <si>
     <t>Kocaeli</t>
   </si>
   <si>
@@ -1807,15 +1796,9 @@
     <t>05367726710</t>
   </si>
   <si>
-    <t>Ahmet Candan</t>
-  </si>
-  <si>
     <t>ahmetcandan85@gmzail.com</t>
   </si>
   <si>
-    <t>23/09/1954</t>
-  </si>
-  <si>
     <t>sağ</t>
   </si>
   <si>
@@ -2512,15 +2495,9 @@
     <t>05354994916</t>
   </si>
   <si>
-    <t>Ziya ishakoglu</t>
-  </si>
-  <si>
     <t>ziyaishakoglu@hotmail.com</t>
   </si>
   <si>
-    <t>15/10/1964</t>
-  </si>
-  <si>
     <t>Tima boll</t>
   </si>
   <si>
@@ -2611,9 +2588,6 @@
     <t>francesca zlc</t>
   </si>
   <si>
-    <t xml:space="preserve">Şenel Altundağ </t>
-  </si>
-  <si>
     <t>0532 361 0669</t>
   </si>
   <si>
@@ -2623,9 +2597,6 @@
     <t>yasinkeller16@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Mehmet Yılmaz </t>
-  </si>
-  <si>
     <t>myillmazz1@gmail.com</t>
   </si>
   <si>
@@ -2950,15 +2921,6 @@
     <t>2024-08-05</t>
   </si>
   <si>
-    <t>8/5/2024 2:27:05</t>
-  </si>
-  <si>
-    <t>Serhat Ocak</t>
-  </si>
-  <si>
-    <t>1982-01-01</t>
-  </si>
-  <si>
     <t>8/5/2024 2:33:37</t>
   </si>
   <si>
@@ -3013,9 +2975,6 @@
     <t>75+</t>
   </si>
   <si>
-    <t>65-69</t>
-  </si>
-  <si>
     <t>Birten Üstünbaş</t>
   </si>
   <si>
@@ -3025,18 +2984,6 @@
     <t>8/5/2024 3:37:44</t>
   </si>
   <si>
-    <t>Gültekin Akkiraz</t>
-  </si>
-  <si>
-    <t>8/5/2024 3:57:38</t>
-  </si>
-  <si>
-    <t>8/5/2024 4:24:38</t>
-  </si>
-  <si>
-    <t>Nurcan Akkiraz</t>
-  </si>
-  <si>
     <t>1973-05-08</t>
   </si>
   <si>
@@ -3109,9 +3056,6 @@
     <t>01.01.1975</t>
   </si>
   <si>
-    <t>21.10.1964</t>
-  </si>
-  <si>
     <t>01.01.1965</t>
   </si>
   <si>
@@ -3139,9 +3083,6 @@
     <t>12.08.1978</t>
   </si>
   <si>
-    <t>01.01.1951</t>
-  </si>
-  <si>
     <t>05.05.1985</t>
   </si>
   <si>
@@ -3163,9 +3104,6 @@
     <t>16.05.1967</t>
   </si>
   <si>
-    <t>07.01.1977</t>
-  </si>
-  <si>
     <t>01/01/1986</t>
   </si>
   <si>
@@ -3175,21 +3113,6 @@
     <t>01/01/1962</t>
   </si>
   <si>
-    <t>8/5/2024 9:30:45</t>
-  </si>
-  <si>
-    <t>8/5/2024 9:45:22</t>
-  </si>
-  <si>
-    <t>Fuat Tekin</t>
-  </si>
-  <si>
-    <t>1963-01-01</t>
-  </si>
-  <si>
-    <t>8/5/2024 10:04:44</t>
-  </si>
-  <si>
     <t>mehmet yılmaz</t>
   </si>
   <si>
@@ -3202,9 +3125,6 @@
     <t>8/5/2024 10:21:26</t>
   </si>
   <si>
-    <t>8/5/2024 10:22:50</t>
-  </si>
-  <si>
     <t>funda öner</t>
   </si>
   <si>
@@ -3220,9 +3140,6 @@
     <t>8/5/2024 10:27:48</t>
   </si>
   <si>
-    <t>8/5/2024 10:30:01</t>
-  </si>
-  <si>
     <t>mahmud zeytuni</t>
   </si>
   <si>
@@ -3238,34 +3155,193 @@
     <t>Nurcan Ay</t>
   </si>
   <si>
-    <t>8/6/2024 9:58:20</t>
-  </si>
-  <si>
-    <t>Berk Şengül</t>
-  </si>
-  <si>
-    <t>berksengul17@gmail.com</t>
-  </si>
-  <si>
-    <t>1982-12-04</t>
-  </si>
-  <si>
-    <t>543 627 15 12</t>
-  </si>
-  <si>
-    <t>8/6/2024 10:00:30</t>
-  </si>
-  <si>
-    <t>Mark Land</t>
-  </si>
-  <si>
-    <t>mark@gmail.com</t>
-  </si>
-  <si>
-    <t>1962-12-04</t>
-  </si>
-  <si>
-    <t>511 111 11 11</t>
+    <t>8/7/2024 8:03:01</t>
+  </si>
+  <si>
+    <t>8/7/2024 8:03:43</t>
+  </si>
+  <si>
+    <t>sadullah şen</t>
+  </si>
+  <si>
+    <t>1953-09-28</t>
+  </si>
+  <si>
+    <t>kemal sağ</t>
+  </si>
+  <si>
+    <t>1955-01-01</t>
+  </si>
+  <si>
+    <t>8/7/2024 8:04:09</t>
+  </si>
+  <si>
+    <t>ahmet candan</t>
+  </si>
+  <si>
+    <t>1954-09-23</t>
+  </si>
+  <si>
+    <t>8/7/2024 8:04:48</t>
+  </si>
+  <si>
+    <t>serhat ocak</t>
+  </si>
+  <si>
+    <t>1986-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>2024-08-07</t>
+  </si>
+  <si>
+    <t>ender balıkçı</t>
+  </si>
+  <si>
+    <t>8/7/2024 8:20:48</t>
+  </si>
+  <si>
+    <t>esen yazıcı</t>
+  </si>
+  <si>
+    <t>8/7/2024 8:26:01</t>
+  </si>
+  <si>
+    <t>1974-08-07</t>
+  </si>
+  <si>
+    <t>8/7/2024 8:27:37</t>
+  </si>
+  <si>
+    <t>8/7/2024 8:40:38</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> test</t>
+  </si>
+  <si>
+    <t>8/7/2024 8:46:29</t>
+  </si>
+  <si>
+    <t>yalçın kalay</t>
+  </si>
+  <si>
+    <t>1955-08-07</t>
+  </si>
+  <si>
+    <t>8/7/2024 8:47:39</t>
+  </si>
+  <si>
+    <t>8/7/2024 8:52:24</t>
+  </si>
+  <si>
+    <t>8/7/2024 9:46:54</t>
+  </si>
+  <si>
+    <t>burak acar</t>
+  </si>
+  <si>
+    <t>8/7/2024 9:47:34</t>
+  </si>
+  <si>
+    <t>burhanettin demirel</t>
+  </si>
+  <si>
+    <t>8/7/2024 9:47:54</t>
+  </si>
+  <si>
+    <t>yasin örnek</t>
+  </si>
+  <si>
+    <t>8/7/2024 9:48:11</t>
+  </si>
+  <si>
+    <t>bayram ertuğrul</t>
+  </si>
+  <si>
+    <t>8/7/2024 9:48:34</t>
+  </si>
+  <si>
+    <t>hayrettin kasapoğlu</t>
+  </si>
+  <si>
+    <t>8/7/2024 9:48:42</t>
+  </si>
+  <si>
+    <t>mehmet ufuk demirci</t>
+  </si>
+  <si>
+    <t>8/7/2024 9:48:56</t>
+  </si>
+  <si>
+    <t>erdoğan sarsıcı</t>
+  </si>
+  <si>
+    <t>8/7/2024 9:49:12</t>
+  </si>
+  <si>
+    <t>cengiz penol</t>
+  </si>
+  <si>
+    <t>8/7/2024 9:49:24</t>
+  </si>
+  <si>
+    <t>Wahib MOQBEL</t>
+  </si>
+  <si>
+    <t>mahmut doğru</t>
+  </si>
+  <si>
+    <t>8/7/2024 9:49:44</t>
+  </si>
+  <si>
+    <t>8/7/2024 9:51:06</t>
+  </si>
+  <si>
+    <t>ziya ishakoglu</t>
+  </si>
+  <si>
+    <t>1964-10-15</t>
+  </si>
+  <si>
+    <t>8/7/2024 9:52:19</t>
+  </si>
+  <si>
+    <t>Şenel altun</t>
+  </si>
+  <si>
+    <t>1951-01-01</t>
+  </si>
+  <si>
+    <t>8/7/2024 9:52:43</t>
+  </si>
+  <si>
+    <t>mahmut tolga toksöz</t>
+  </si>
+  <si>
+    <t>1974-10-11</t>
+  </si>
+  <si>
+    <t>8/9/2024 10:25:33</t>
+  </si>
+  <si>
+    <t>2024-08-09</t>
+  </si>
+  <si>
+    <t>8/9/2024 10:28:10</t>
+  </si>
+  <si>
+    <t>8/9/2024 10:39:40</t>
+  </si>
+  <si>
+    <t>8/9/2024 10:41:29</t>
+  </si>
+  <si>
+    <t>8/9/2024 10:41:50</t>
+  </si>
+  <si>
+    <t>Esen Yazıcı</t>
   </si>
 </sst>
 </file>
@@ -3373,7 +3449,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3428,9 +3504,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3652,8 +3725,8 @@
   <dimension ref="A1:N299"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A190" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A197" sqref="A197"/>
+      <pane ySplit="1" topLeftCell="A205" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C211" sqref="C211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3702,13 +3775,13 @@
         <v>10</v>
       </c>
       <c r="L1" t="s" s="0">
-        <v>931</v>
+        <v>914</v>
       </c>
       <c r="M1" t="s" s="0">
-        <v>932</v>
+        <v>915</v>
       </c>
       <c r="N1" t="s" s="0">
-        <v>933</v>
+        <v>916</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
@@ -3745,10 +3818,10 @@
         <v>1.0</v>
       </c>
       <c r="M2" t="s" s="0">
-        <v>934</v>
+        <v>917</v>
       </c>
       <c r="N2" t="n" s="0">
-        <v>5108.0</v>
+        <v>5394.0</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
@@ -3781,10 +3854,10 @@
         <v>2.0</v>
       </c>
       <c r="M3" t="s" s="0">
-        <v>935</v>
+        <v>918</v>
       </c>
       <c r="N3" t="n" s="0">
-        <v>4999.0</v>
+        <v>5099.0</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
@@ -3798,7 +3871,7 @@
         <v>26</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>622</v>
+        <v>612</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>14</v>
@@ -3819,7 +3892,7 @@
         <v>3.0</v>
       </c>
       <c r="M4" t="s" s="0">
-        <v>934</v>
+        <v>917</v>
       </c>
       <c r="N4" t="n" s="0">
         <v>0.0</v>
@@ -3863,10 +3936,10 @@
         <v>4.0</v>
       </c>
       <c r="M5" t="s" s="0">
-        <v>936</v>
+        <v>919</v>
       </c>
       <c r="N5" t="n" s="0">
-        <v>4723.0</v>
+        <v>4885.0</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
@@ -3899,10 +3972,10 @@
         <v>5.0</v>
       </c>
       <c r="M6" t="s" s="0">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="N6" t="n" s="0">
-        <v>5364.0</v>
+        <v>5519.0</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
@@ -3916,7 +3989,7 @@
         <v>43</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>952</v>
+        <v>930</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>14</v>
@@ -3943,10 +4016,10 @@
         <v>6.0</v>
       </c>
       <c r="M7" t="s" s="0">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="N7" t="n" s="0">
-        <v>5618.0</v>
+        <v>5814.0</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
@@ -3987,10 +4060,10 @@
         <v>7.0</v>
       </c>
       <c r="M8" t="s" s="0">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="N8" t="n" s="0">
-        <v>4914.0</v>
+        <v>4912.0</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
@@ -4004,7 +4077,7 @@
         <v>60</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>953</v>
+        <v>931</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>14</v>
@@ -4031,10 +4104,10 @@
         <v>8.0</v>
       </c>
       <c r="M9" t="s" s="0">
-        <v>937</v>
+        <v>920</v>
       </c>
       <c r="N9" t="n" s="0">
-        <v>4707.0</v>
+        <v>4733.0</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
@@ -4048,7 +4121,7 @@
         <v>66</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>954</v>
+        <v>932</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>14</v>
@@ -4075,10 +4148,10 @@
         <v>9.0</v>
       </c>
       <c r="M10" t="s" s="0">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="N10" t="n" s="0">
-        <v>5312.0</v>
+        <v>5380.0</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
@@ -4119,10 +4192,10 @@
         <v>10.0</v>
       </c>
       <c r="M11" t="s" s="0">
-        <v>934</v>
+        <v>917</v>
       </c>
       <c r="N11" t="n" s="0">
-        <v>4802.0</v>
+        <v>4828.0</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
@@ -4136,7 +4209,7 @@
         <v>79</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>955</v>
+        <v>933</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>14</v>
@@ -4163,7 +4236,7 @@
         <v>11.0</v>
       </c>
       <c r="M12" t="s" s="0">
-        <v>936</v>
+        <v>919</v>
       </c>
       <c r="N12" t="n" s="0">
         <v>0.0</v>
@@ -4180,7 +4253,7 @@
         <v>86</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>956</v>
+        <v>934</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>14</v>
@@ -4207,7 +4280,7 @@
         <v>12.0</v>
       </c>
       <c r="M13" t="s" s="0">
-        <v>937</v>
+        <v>920</v>
       </c>
       <c r="N13" t="n" s="0">
         <v>5006.0</v>
@@ -4224,7 +4297,7 @@
         <v>91</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>622</v>
+        <v>612</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>14</v>
@@ -4251,10 +4324,10 @@
         <v>13.0</v>
       </c>
       <c r="M14" t="s" s="0">
-        <v>934</v>
+        <v>917</v>
       </c>
       <c r="N14" t="n" s="0">
-        <v>5219.0</v>
+        <v>5100.0</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
@@ -4268,7 +4341,7 @@
         <v>97</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>974</v>
+        <v>951</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>14</v>
@@ -4289,10 +4362,10 @@
         <v>14.0</v>
       </c>
       <c r="M15" t="s" s="0">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="N15" t="n" s="0">
-        <v>4493.0</v>
+        <v>4483.0</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
@@ -4329,10 +4402,10 @@
         <v>15.0</v>
       </c>
       <c r="M16" t="s" s="0">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="N16" t="n" s="0">
-        <v>5455.0</v>
+        <v>5485.0</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
@@ -4373,10 +4446,10 @@
         <v>16.0</v>
       </c>
       <c r="M17" t="s" s="0">
-        <v>934</v>
+        <v>917</v>
       </c>
       <c r="N17" t="n" s="0">
-        <v>5316.0</v>
+        <v>5330.0</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
@@ -4417,10 +4490,10 @@
         <v>17.0</v>
       </c>
       <c r="M18" t="s" s="0">
-        <v>938</v>
+        <v>921</v>
       </c>
       <c r="N18" t="n" s="0">
-        <v>5042.0</v>
+        <v>5063.0</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
@@ -4434,7 +4507,7 @@
         <v>116</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>957</v>
+        <v>935</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>14</v>
@@ -4461,10 +4534,10 @@
         <v>18.0</v>
       </c>
       <c r="M19" t="s" s="0">
-        <v>934</v>
+        <v>917</v>
       </c>
       <c r="N19" t="n" s="0">
-        <v>5471.0</v>
+        <v>5459.0</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
@@ -4499,10 +4572,10 @@
         <v>19.0</v>
       </c>
       <c r="M20" t="s" s="0">
-        <v>935</v>
+        <v>918</v>
       </c>
       <c r="N20" t="n" s="0">
-        <v>5422.0</v>
+        <v>5428.0</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
@@ -4516,7 +4589,7 @@
         <v>126</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>958</v>
+        <v>936</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>14</v>
@@ -4543,7 +4616,7 @@
         <v>20.0</v>
       </c>
       <c r="M21" t="s" s="0">
-        <v>934</v>
+        <v>917</v>
       </c>
       <c r="N21" t="n" s="0">
         <v>0.0</v>
@@ -4560,7 +4633,7 @@
         <v>130</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>960</v>
+        <v>938</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>14</v>
@@ -4587,10 +4660,10 @@
         <v>21.0</v>
       </c>
       <c r="M22" t="s" s="0">
-        <v>938</v>
+        <v>921</v>
       </c>
       <c r="N22" t="n" s="0">
-        <v>5697.0</v>
+        <v>5689.0</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
@@ -4604,7 +4677,7 @@
         <v>136</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>959</v>
+        <v>937</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>22</v>
@@ -4623,10 +4696,10 @@
         <v>22.0</v>
       </c>
       <c r="M23" t="s" s="0">
-        <v>939</v>
+        <v>922</v>
       </c>
       <c r="N23" t="n" s="0">
-        <v>5167.0</v>
+        <v>5203.0</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
@@ -4659,7 +4732,7 @@
         <v>23.0</v>
       </c>
       <c r="M24" t="s" s="0">
-        <v>934</v>
+        <v>917</v>
       </c>
       <c r="N24" t="n" s="0">
         <v>0.0</v>
@@ -4676,7 +4749,7 @@
         <v>145</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>959</v>
+        <v>937</v>
       </c>
       <c r="E25" s="8" t="s">
         <v>22</v>
@@ -4701,10 +4774,10 @@
         <v>24.0</v>
       </c>
       <c r="M25" t="s" s="0">
-        <v>939</v>
+        <v>922</v>
       </c>
       <c r="N25" t="n" s="0">
-        <v>4938.0</v>
+        <v>4976.0</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
@@ -4739,10 +4812,10 @@
         <v>25.0</v>
       </c>
       <c r="M26" t="s" s="0">
-        <v>935</v>
+        <v>918</v>
       </c>
       <c r="N26" t="n" s="0">
-        <v>4774.0</v>
+        <v>4715.0</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
@@ -4783,7 +4856,7 @@
         <v>26.0</v>
       </c>
       <c r="M27" t="s" s="0">
-        <v>934</v>
+        <v>917</v>
       </c>
       <c r="N27" t="n" s="0">
         <v>4406.0</v>
@@ -4800,7 +4873,7 @@
         <v>161</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>961</v>
+        <v>939</v>
       </c>
       <c r="E28" s="8" t="s">
         <v>22</v>
@@ -4819,7 +4892,7 @@
         <v>27.0</v>
       </c>
       <c r="M28" t="s" s="0">
-        <v>935</v>
+        <v>918</v>
       </c>
       <c r="N28" t="n" s="0">
         <v>0.0</v>
@@ -4836,7 +4909,7 @@
         <v>165</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>962</v>
+        <v>940</v>
       </c>
       <c r="E29" s="8" t="s">
         <v>22</v>
@@ -4855,7 +4928,7 @@
         <v>28.0</v>
       </c>
       <c r="M29" t="s" s="0">
-        <v>935</v>
+        <v>918</v>
       </c>
       <c r="N29" t="n" s="0">
         <v>0.0</v>
@@ -4891,10 +4964,10 @@
         <v>29.0</v>
       </c>
       <c r="M30" t="s" s="0">
-        <v>934</v>
+        <v>917</v>
       </c>
       <c r="N30" t="n" s="0">
-        <v>4984.0</v>
+        <v>4934.0</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
@@ -4935,7 +5008,7 @@
         <v>30.0</v>
       </c>
       <c r="M31" t="s" s="0">
-        <v>934</v>
+        <v>917</v>
       </c>
       <c r="N31" t="n" s="0">
         <v>5036.0</v>
@@ -4979,51 +5052,51 @@
         <v>31.0</v>
       </c>
       <c r="M32" t="s" s="0">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="N32" t="n" s="0">
-        <v>4918.0</v>
+        <v>4905.0</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="7">
-        <v>45492.67995936342</v>
-      </c>
-      <c r="B33" s="8" t="s">
+      <c r="A33" t="s" s="0">
+        <v>1037</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>1038</v>
+      </c>
+      <c r="C33" t="s" s="0">
         <v>182</v>
       </c>
-      <c r="C33" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F33" s="8" t="s">
+      <c r="D33" s="4" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E33" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F33" t="s" s="0">
         <v>80</v>
       </c>
       <c r="G33" s="8" t="s">
         <v>50</v>
       </c>
       <c r="H33" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="J33" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="I33" s="8" t="s">
+      <c r="K33" s="2" t="s">
         <v>186</v>
-      </c>
-      <c r="J33" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="K33" s="11" t="s">
-        <v>188</v>
       </c>
       <c r="L33" t="n" s="0">
         <v>32.0</v>
       </c>
       <c r="M33" t="s" s="0">
-        <v>934</v>
+        <v>352</v>
       </c>
       <c r="N33" t="n" s="0">
         <v>0.0</v>
@@ -5034,19 +5107,19 @@
         <v>45492.834321516202</v>
       </c>
       <c r="B34" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>936</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" s="8" t="s">
         <v>189</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>958</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>191</v>
       </c>
       <c r="G34" s="8" t="s">
         <v>16</v>
@@ -5055,22 +5128,22 @@
         <v>55</v>
       </c>
       <c r="I34" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="J34" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="K34" s="11" t="s">
         <v>192</v>
-      </c>
-      <c r="J34" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="K34" s="11" t="s">
-        <v>194</v>
       </c>
       <c r="L34" t="n" s="0">
         <v>33.0</v>
       </c>
       <c r="M34" t="s" s="0">
-        <v>934</v>
+        <v>917</v>
       </c>
       <c r="N34" t="n" s="0">
-        <v>4631.0</v>
+        <v>4643.0</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
@@ -5078,19 +5151,19 @@
         <v>45492.884894675924</v>
       </c>
       <c r="B35" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="D35" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="C35" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>197</v>
-      </c>
       <c r="E35" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G35" s="8" t="s">
         <v>16</v>
@@ -5099,17 +5172,17 @@
         <v>112</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J35" s="10"/>
       <c r="K35" s="11" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="L35" t="n" s="0">
         <v>34.0</v>
       </c>
       <c r="M35" t="s" s="0">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="N35" t="n" s="0">
         <v>0.0</v>
@@ -5120,13 +5193,13 @@
         <v>45492.966953842595</v>
       </c>
       <c r="B36" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="D36" s="9" t="s">
         <v>200</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>202</v>
       </c>
       <c r="E36" s="8" t="s">
         <v>14</v>
@@ -5138,18 +5211,18 @@
         <v>28</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I36" s="10"/>
       <c r="J36" s="10"/>
       <c r="K36" s="11" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="L36" t="n" s="0">
         <v>35.0</v>
       </c>
       <c r="M36" t="s" s="0">
-        <v>938</v>
+        <v>921</v>
       </c>
       <c r="N36" t="n" s="0">
         <v>0.0</v>
@@ -5160,13 +5233,13 @@
         <v>45492.991188553242</v>
       </c>
       <c r="B37" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="D37" s="9" t="s">
         <v>205</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>207</v>
       </c>
       <c r="E37" s="8" t="s">
         <v>14</v>
@@ -5182,7 +5255,7 @@
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K37" s="6">
         <v>5325890172</v>
@@ -5191,10 +5264,10 @@
         <v>36.0</v>
       </c>
       <c r="M37" t="s" s="0">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="N37" t="n" s="0">
-        <v>4839.0</v>
+        <v>4798.0</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
@@ -5202,13 +5275,13 @@
         <v>45493.007139074078</v>
       </c>
       <c r="B38" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="D38" s="9" t="s">
         <v>209</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>211</v>
       </c>
       <c r="E38" s="8" t="s">
         <v>14</v>
@@ -5221,16 +5294,16 @@
       <c r="I38" s="10"/>
       <c r="J38" s="10"/>
       <c r="K38" s="11" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="L38" t="n" s="0">
         <v>37.0</v>
       </c>
       <c r="M38" t="s" s="0">
-        <v>938</v>
+        <v>921</v>
       </c>
       <c r="N38" t="n" s="0">
-        <v>5398.0</v>
+        <v>5374.0</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
@@ -5238,13 +5311,13 @@
         <v>45493.671450277776</v>
       </c>
       <c r="B39" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="D39" s="9" t="s">
         <v>213</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>215</v>
       </c>
       <c r="E39" s="8" t="s">
         <v>14</v>
@@ -5265,7 +5338,7 @@
         <v>38.0</v>
       </c>
       <c r="M39" t="s" s="0">
-        <v>938</v>
+        <v>921</v>
       </c>
       <c r="N39" t="n" s="0">
         <v>0.0</v>
@@ -5276,19 +5349,19 @@
         <v>45493.672012962961</v>
       </c>
       <c r="B40" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="D40" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="E40" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40" s="8" t="s">
         <v>217</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F40" s="8" t="s">
-        <v>219</v>
       </c>
       <c r="G40" s="8" t="s">
         <v>28</v>
@@ -5297,19 +5370,19 @@
         <v>55</v>
       </c>
       <c r="I40" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="J40" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="K40" s="6" t="s">
         <v>220</v>
-      </c>
-      <c r="J40" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="K40" s="6" t="s">
-        <v>222</v>
       </c>
       <c r="L40" t="n" s="0">
         <v>39.0</v>
       </c>
       <c r="M40" t="s" s="0">
-        <v>938</v>
+        <v>921</v>
       </c>
       <c r="N40" t="n" s="0">
         <v>0.0</v>
@@ -5320,13 +5393,13 @@
         <v>45493.755492233795</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>963</v>
+        <v>941</v>
       </c>
       <c r="E41" s="8" t="s">
         <v>14</v>
@@ -5341,19 +5414,19 @@
         <v>112</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="J41" s="8" t="s">
         <v>107</v>
       </c>
       <c r="K41" s="6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="L41" t="n" s="0">
         <v>40.0</v>
       </c>
       <c r="M41" t="s" s="0">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="N41" t="n" s="0">
         <v>4321.0</v>
@@ -5364,13 +5437,13 @@
         <v>45493.673256585651</v>
       </c>
       <c r="B42" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="D42" s="9" t="s">
         <v>227</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>229</v>
       </c>
       <c r="E42" s="8" t="s">
         <v>14</v>
@@ -5385,13 +5458,13 @@
       <c r="I42" s="10"/>
       <c r="J42" s="10"/>
       <c r="K42" s="11" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L42" t="n" s="0">
         <v>41.0</v>
       </c>
       <c r="M42" t="s" s="0">
-        <v>934</v>
+        <v>917</v>
       </c>
       <c r="N42" t="n" s="0">
         <v>0.0</v>
@@ -5399,46 +5472,46 @@
     </row>
     <row r="43" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A43" t="s" s="0">
-        <v>1003</v>
+        <v>973</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>950</v>
+        <v>928</v>
       </c>
       <c r="C43" t="s" s="0">
-        <v>231</v>
-      </c>
-      <c r="D43" t="s" s="4">
-        <v>951</v>
+        <v>229</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>929</v>
       </c>
       <c r="E43" t="s" s="0">
         <v>14</v>
       </c>
       <c r="F43" t="s" s="0">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G43" s="8" t="s">
         <v>16</v>
       </c>
       <c r="H43" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="I43" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="J43" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="I43" s="8" t="s">
+      <c r="K43" s="2" t="s">
         <v>234</v>
-      </c>
-      <c r="J43" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="K43" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="L43" t="n" s="0">
         <v>42.0</v>
       </c>
       <c r="M43" t="s" s="0">
-        <v>934</v>
+        <v>917</v>
       </c>
       <c r="N43" t="n" s="0">
-        <v>5742.0</v>
+        <v>5725.0</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
@@ -5446,13 +5519,13 @@
         <v>45493.679969629629</v>
       </c>
       <c r="B44" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="D44" s="9" t="s">
         <v>237</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>239</v>
       </c>
       <c r="E44" s="8" t="s">
         <v>14</v>
@@ -5473,10 +5546,10 @@
         <v>43.0</v>
       </c>
       <c r="M44" t="s" s="0">
-        <v>934</v>
+        <v>917</v>
       </c>
       <c r="N44" t="n" s="0">
-        <v>5187.0</v>
+        <v>5181.0</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
@@ -5484,19 +5557,19 @@
         <v>45493.684197187496</v>
       </c>
       <c r="B45" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>937</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F45" s="8" t="s">
         <v>240</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>959</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F45" s="8" t="s">
-        <v>242</v>
       </c>
       <c r="G45" s="8" t="s">
         <v>28</v>
@@ -5505,10 +5578,10 @@
         <v>55</v>
       </c>
       <c r="I45" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="J45" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K45" s="6">
         <v>5052334166</v>
@@ -5517,10 +5590,10 @@
         <v>44.0</v>
       </c>
       <c r="M45" t="s" s="0">
-        <v>938</v>
+        <v>921</v>
       </c>
       <c r="N45" t="n" s="0">
-        <v>5032.0</v>
+        <v>5035.0</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
@@ -5528,19 +5601,19 @@
         <v>45493.684298657405</v>
       </c>
       <c r="B46" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="D46" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="E46" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F46" s="8" t="s">
         <v>245</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F46" s="8" t="s">
-        <v>247</v>
       </c>
       <c r="G46" s="8" t="s">
         <v>28</v>
@@ -5555,7 +5628,7 @@
         <v>45.0</v>
       </c>
       <c r="M46" t="s" s="0">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="N46" t="n" s="0">
         <v>0.0</v>
@@ -5566,13 +5639,13 @@
         <v>45493.686241307871</v>
       </c>
       <c r="B47" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="D47" s="9" t="s">
         <v>248</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>250</v>
       </c>
       <c r="E47" s="8" t="s">
         <v>14</v>
@@ -5584,22 +5657,22 @@
         <v>16</v>
       </c>
       <c r="H47" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="I47" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="J47" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="I47" s="8" t="s">
+      <c r="K47" s="11" t="s">
         <v>252</v>
-      </c>
-      <c r="J47" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="K47" s="11" t="s">
-        <v>254</v>
       </c>
       <c r="L47" t="n" s="0">
         <v>46.0</v>
       </c>
       <c r="M47" t="s" s="0">
-        <v>937</v>
+        <v>920</v>
       </c>
       <c r="N47" t="n" s="0">
         <v>0.0</v>
@@ -5610,13 +5683,13 @@
         <v>45493.692068912038</v>
       </c>
       <c r="B48" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D48" s="9" t="s">
         <v>255</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>257</v>
       </c>
       <c r="E48" s="8" t="s">
         <v>14</v>
@@ -5631,16 +5704,16 @@
       <c r="I48" s="10"/>
       <c r="J48" s="10"/>
       <c r="K48" s="11" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="L48" t="n" s="0">
         <v>47.0</v>
       </c>
       <c r="M48" t="s" s="0">
-        <v>934</v>
+        <v>917</v>
       </c>
       <c r="N48" t="n" s="0">
-        <v>5653.0</v>
+        <v>5646.0</v>
       </c>
     </row>
     <row r="49" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
@@ -5648,19 +5721,19 @@
         <v>45498.60474844907</v>
       </c>
       <c r="B49" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="D49" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="E49" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F49" s="8" t="s">
         <v>260</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F49" s="8" t="s">
-        <v>262</v>
       </c>
       <c r="G49" s="8" t="s">
         <v>28</v>
@@ -5669,16 +5742,16 @@
       <c r="I49" s="10"/>
       <c r="J49" s="10"/>
       <c r="K49" s="6" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="L49" t="n" s="0">
         <v>48.0</v>
       </c>
       <c r="M49" t="s" s="0">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="N49" t="n" s="0">
-        <v>4537.0</v>
+        <v>4519.0</v>
       </c>
     </row>
     <row r="50" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
@@ -5686,13 +5759,13 @@
         <v>45493.697846400464</v>
       </c>
       <c r="B50" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="D50" s="9" t="s">
         <v>264</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>266</v>
       </c>
       <c r="E50" s="8" t="s">
         <v>14</v>
@@ -5711,10 +5784,10 @@
         <v>49.0</v>
       </c>
       <c r="M50" t="s" s="0">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="N50" t="n" s="0">
-        <v>5242.0</v>
+        <v>5260.0</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
@@ -5722,13 +5795,13 @@
         <v>45493.701935613426</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>964</v>
+        <v>942</v>
       </c>
       <c r="E51" s="8" t="s">
         <v>14</v>
@@ -5740,25 +5813,25 @@
         <v>16</v>
       </c>
       <c r="H51" s="8" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="I51" s="8" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="J51" s="8" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K51" s="11" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="L51" t="n" s="0">
         <v>50.0</v>
       </c>
       <c r="M51" t="s" s="0">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="N51" t="n" s="0">
-        <v>4880.0</v>
+        <v>4843.0</v>
       </c>
     </row>
     <row r="52" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
@@ -5766,13 +5839,13 @@
         <v>45493.703450648143</v>
       </c>
       <c r="B52" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="D52" s="9" t="s">
         <v>271</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>273</v>
       </c>
       <c r="E52" s="8" t="s">
         <v>14</v>
@@ -5784,25 +5857,25 @@
         <v>16</v>
       </c>
       <c r="H52" s="8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="I52" s="8" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="J52" s="8" t="s">
         <v>36</v>
       </c>
       <c r="K52" s="11" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="L52" t="n" s="0">
         <v>51.0</v>
       </c>
       <c r="M52" t="s" s="0">
-        <v>934</v>
+        <v>917</v>
       </c>
       <c r="N52" t="n" s="0">
-        <v>5490.0</v>
+        <v>5396.0</v>
       </c>
     </row>
     <row r="53" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5810,19 +5883,19 @@
         <v>45493.704510509255</v>
       </c>
       <c r="B53" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>943</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F53" s="8" t="s">
         <v>277</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>965</v>
-      </c>
-      <c r="E53" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F53" s="8" t="s">
-        <v>279</v>
       </c>
       <c r="G53" s="8" t="s">
         <v>81</v>
@@ -5839,10 +5912,10 @@
         <v>52.0</v>
       </c>
       <c r="M53" t="s" s="0">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="N53" t="n" s="0">
-        <v>4845.0</v>
+        <v>5038.0</v>
       </c>
     </row>
     <row r="54" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
@@ -5850,40 +5923,40 @@
         <v>45493.709328240744</v>
       </c>
       <c r="B54" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>944</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F54" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="C54" s="8" t="s">
+      <c r="G54" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="D54" s="5" t="s">
-        <v>966</v>
-      </c>
-      <c r="E54" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F54" s="8" t="s">
+      <c r="H54" s="8" t="s">
         <v>282</v>
-      </c>
-      <c r="G54" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="H54" s="8" t="s">
-        <v>284</v>
       </c>
       <c r="I54" s="8" t="s">
         <v>83</v>
       </c>
       <c r="J54" s="8" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K54" s="11" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="L54" t="n" s="0">
         <v>53.0</v>
       </c>
       <c r="M54" t="s" s="0">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="N54" t="n" s="0">
         <v>0.0</v>
@@ -5894,31 +5967,31 @@
         <v>45493.711118217594</v>
       </c>
       <c r="B55" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>945</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F55" s="8" t="s">
         <v>287</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>967</v>
-      </c>
-      <c r="E55" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F55" s="8" t="s">
-        <v>289</v>
       </c>
       <c r="G55" s="8" t="s">
         <v>16</v>
       </c>
       <c r="H55" s="8" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="I55" s="8" t="s">
         <v>83</v>
       </c>
       <c r="J55" s="8" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K55" s="6">
         <v>5324618824</v>
@@ -5927,7 +6000,7 @@
         <v>54.0</v>
       </c>
       <c r="M55" t="s" s="0">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="N55" t="n" s="0">
         <v>4840.0</v>
@@ -5938,40 +6011,40 @@
         <v>45493.711310810184</v>
       </c>
       <c r="B56" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="D56" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="E56" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F56" s="8" t="s">
         <v>293</v>
-      </c>
-      <c r="D56" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="E56" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F56" s="8" t="s">
-        <v>295</v>
       </c>
       <c r="G56" s="8" t="s">
         <v>16</v>
       </c>
       <c r="H56" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="I56" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="J56" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="I56" s="8" t="s">
+      <c r="K56" s="11" t="s">
         <v>297</v>
-      </c>
-      <c r="J56" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="K56" s="11" t="s">
-        <v>299</v>
       </c>
       <c r="L56" t="n" s="0">
         <v>55.0</v>
       </c>
       <c r="M56" t="s" s="0">
-        <v>938</v>
+        <v>921</v>
       </c>
       <c r="N56" t="n" s="0">
         <v>0.0</v>
@@ -5982,19 +6055,19 @@
         <v>45493.711543819445</v>
       </c>
       <c r="B57" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="D57" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="E57" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F57" s="8" t="s">
         <v>301</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>302</v>
-      </c>
-      <c r="E57" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F57" s="8" t="s">
-        <v>303</v>
       </c>
       <c r="G57" s="10"/>
       <c r="H57" s="10"/>
@@ -6007,7 +6080,7 @@
         <v>56.0</v>
       </c>
       <c r="M57" t="s" s="0">
-        <v>934</v>
+        <v>917</v>
       </c>
       <c r="N57" t="n" s="0">
         <v>0.0</v>
@@ -6018,19 +6091,19 @@
         <v>45493.711870312502</v>
       </c>
       <c r="B58" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="D58" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="C58" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="D58" s="9" t="s">
-        <v>306</v>
-      </c>
       <c r="E58" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G58" s="8" t="s">
         <v>28</v>
@@ -6039,22 +6112,22 @@
         <v>75</v>
       </c>
       <c r="I58" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="J58" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="K58" s="6" t="s">
         <v>307</v>
-      </c>
-      <c r="J58" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="K58" s="6" t="s">
-        <v>309</v>
       </c>
       <c r="L58" t="n" s="0">
         <v>57.0</v>
       </c>
       <c r="M58" t="s" s="0">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="N58" t="n" s="0">
-        <v>5489.0</v>
+        <v>5563.0</v>
       </c>
     </row>
     <row r="59" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
@@ -6062,13 +6135,13 @@
         <v>45493.714485208329</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>968</v>
+        <v>946</v>
       </c>
       <c r="E59" s="8" t="s">
         <v>14</v>
@@ -6089,7 +6162,7 @@
         <v>58.0</v>
       </c>
       <c r="M59" t="s" s="0">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="N59" t="n" s="0">
         <v>0.0</v>
@@ -6100,38 +6173,38 @@
         <v>45493.723379108793</v>
       </c>
       <c r="B60" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="D60" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="C60" s="8" t="s">
+      <c r="E60" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F60" s="8" t="s">
         <v>313</v>
-      </c>
-      <c r="D60" s="9" t="s">
-        <v>314</v>
-      </c>
-      <c r="E60" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F60" s="8" t="s">
-        <v>315</v>
       </c>
       <c r="G60" s="8" t="s">
         <v>16</v>
       </c>
       <c r="H60" s="10"/>
       <c r="I60" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="J60" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="K60" s="11" t="s">
         <v>316</v>
-      </c>
-      <c r="J60" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="K60" s="11" t="s">
-        <v>318</v>
       </c>
       <c r="L60" t="n" s="0">
         <v>59.0</v>
       </c>
       <c r="M60" t="s" s="0">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="N60" t="n" s="0">
         <v>0.0</v>
@@ -6142,28 +6215,28 @@
         <v>45493.724814027781</v>
       </c>
       <c r="B61" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="D61" s="9" t="s">
         <v>319</v>
       </c>
-      <c r="C61" s="8" t="s">
+      <c r="E61" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F61" s="8" t="s">
         <v>320</v>
-      </c>
-      <c r="D61" s="9" t="s">
-        <v>321</v>
-      </c>
-      <c r="E61" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F61" s="8" t="s">
-        <v>322</v>
       </c>
       <c r="G61" s="8" t="s">
         <v>16</v>
       </c>
       <c r="H61" s="8" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I61" s="8" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="J61" s="8" t="s">
         <v>36</v>
@@ -6175,10 +6248,10 @@
         <v>60.0</v>
       </c>
       <c r="M61" t="s" s="0">
-        <v>934</v>
+        <v>917</v>
       </c>
       <c r="N61" t="n" s="0">
-        <v>4483.0</v>
+        <v>4481.0</v>
       </c>
     </row>
     <row r="62" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
@@ -6186,22 +6259,22 @@
         <v>45493.726420254628</v>
       </c>
       <c r="B62" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="D62" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="C62" s="8" t="s">
+      <c r="E62" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F62" s="8" t="s">
         <v>326</v>
       </c>
-      <c r="D62" s="9" t="s">
+      <c r="G62" s="8" t="s">
         <v>327</v>
-      </c>
-      <c r="E62" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F62" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="G62" s="8" t="s">
-        <v>329</v>
       </c>
       <c r="H62" s="8" t="s">
         <v>55</v>
@@ -6210,16 +6283,16 @@
         <v>68</v>
       </c>
       <c r="J62" s="8" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="K62" s="11" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="L62" t="n" s="0">
         <v>61.0</v>
       </c>
       <c r="M62" t="s" s="0">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="N62" t="n" s="0">
         <v>0.0</v>
@@ -6230,13 +6303,13 @@
         <v>45493.727164305557</v>
       </c>
       <c r="B63" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="D63" s="9" t="s">
         <v>332</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="D63" s="9" t="s">
-        <v>334</v>
       </c>
       <c r="E63" s="8" t="s">
         <v>22</v>
@@ -6248,25 +6321,25 @@
         <v>16</v>
       </c>
       <c r="H63" s="8" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="I63" s="8" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="J63" s="8" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="K63" s="11" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="L63" t="n" s="0">
         <v>62.0</v>
       </c>
       <c r="M63" t="s" s="0">
-        <v>935</v>
+        <v>918</v>
       </c>
       <c r="N63" t="n" s="0">
-        <v>4117.0</v>
+        <v>4115.0</v>
       </c>
     </row>
     <row r="64" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
@@ -6274,13 +6347,13 @@
         <v>45493.732041203708</v>
       </c>
       <c r="B64" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="D64" s="9" t="s">
         <v>337</v>
-      </c>
-      <c r="C64" s="8" t="s">
-        <v>338</v>
-      </c>
-      <c r="D64" s="9" t="s">
-        <v>339</v>
       </c>
       <c r="E64" s="8" t="s">
         <v>14</v>
@@ -6299,10 +6372,10 @@
         <v>63.0</v>
       </c>
       <c r="M64" t="s" s="0">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="N64" t="n" s="0">
-        <v>4516.0</v>
+        <v>4517.0</v>
       </c>
     </row>
     <row r="65" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
@@ -6310,13 +6383,13 @@
         <v>45493.735571620375</v>
       </c>
       <c r="B65" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="D65" s="9" t="s">
         <v>340</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="D65" s="9" t="s">
-        <v>342</v>
       </c>
       <c r="E65" s="8" t="s">
         <v>14</v>
@@ -6331,10 +6404,10 @@
         <v>55</v>
       </c>
       <c r="I65" s="8" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="J65" s="8" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="K65" s="6">
         <v>5376148213</v>
@@ -6352,13 +6425,13 @@
         <v>45493.737361516207</v>
       </c>
       <c r="B66" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="D66" s="9" t="s">
         <v>345</v>
-      </c>
-      <c r="C66" s="8" t="s">
-        <v>346</v>
-      </c>
-      <c r="D66" s="9" t="s">
-        <v>347</v>
       </c>
       <c r="E66" s="8" t="s">
         <v>14</v>
@@ -6370,22 +6443,22 @@
         <v>16</v>
       </c>
       <c r="H66" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="I66" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="J66" s="8" t="s">
         <v>348</v>
       </c>
-      <c r="I66" s="8" t="s">
+      <c r="K66" s="11" t="s">
         <v>349</v>
-      </c>
-      <c r="J66" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="K66" s="11" t="s">
-        <v>351</v>
       </c>
       <c r="L66" t="n" s="0">
         <v>65.0</v>
       </c>
       <c r="M66" t="s" s="0">
-        <v>937</v>
+        <v>920</v>
       </c>
       <c r="N66" t="n" s="0">
         <v>0.0</v>
@@ -6396,23 +6469,23 @@
         <v>45493.740319756944</v>
       </c>
       <c r="B67" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>930</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F67" s="8" t="s">
         <v>352</v>
-      </c>
-      <c r="C67" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>952</v>
-      </c>
-      <c r="E67" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F67" s="8" t="s">
-        <v>354</v>
       </c>
       <c r="G67" s="10"/>
       <c r="H67" s="8" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="I67" s="10"/>
       <c r="J67" s="10"/>
@@ -6423,10 +6496,10 @@
         <v>66.0</v>
       </c>
       <c r="M67" t="s" s="0">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="N67" t="n" s="0">
-        <v>5269.0</v>
+        <v>5399.0</v>
       </c>
     </row>
     <row r="68" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
@@ -6434,31 +6507,31 @@
         <v>45493.7412324537</v>
       </c>
       <c r="B68" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="D68" s="9" t="s">
         <v>356</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>357</v>
-      </c>
-      <c r="D68" s="9" t="s">
-        <v>358</v>
       </c>
       <c r="E68" s="8" t="s">
         <v>22</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G68" s="8" t="s">
         <v>16</v>
       </c>
       <c r="H68" s="8" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="I68" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="J68" s="8" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K68" s="6">
         <v>5415709203</v>
@@ -6467,7 +6540,7 @@
         <v>67.0</v>
       </c>
       <c r="M68" t="s" s="0">
-        <v>935</v>
+        <v>918</v>
       </c>
       <c r="N68" t="n" s="0">
         <v>0.0</v>
@@ -6478,13 +6551,13 @@
         <v>45493.75133694445</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>967</v>
+        <v>945</v>
       </c>
       <c r="E69" s="8" t="s">
         <v>14</v>
@@ -6499,16 +6572,16 @@
       <c r="I69" s="10"/>
       <c r="J69" s="10"/>
       <c r="K69" s="11" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="L69" t="n" s="0">
         <v>68.0</v>
       </c>
       <c r="M69" t="s" s="0">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="N69" t="n" s="0">
-        <v>5500.0</v>
+        <v>5420.0</v>
       </c>
     </row>
     <row r="70" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
@@ -6516,19 +6589,19 @@
         <v>45494.11611581019</v>
       </c>
       <c r="B70" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="D70" s="9" t="s">
         <v>363</v>
       </c>
-      <c r="C70" s="8" t="s">
-        <v>364</v>
-      </c>
-      <c r="D70" s="9" t="s">
-        <v>365</v>
-      </c>
       <c r="E70" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G70" s="8" t="s">
         <v>16</v>
@@ -6539,7 +6612,7 @@
       <c r="I70" s="10"/>
       <c r="J70" s="10"/>
       <c r="K70" s="11" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="L70" t="n" s="0">
         <v>69.0</v>
@@ -6554,19 +6627,19 @@
         <v>45493.758742986116</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>954</v>
+        <v>932</v>
       </c>
       <c r="E71" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G71" s="8" t="s">
         <v>28</v>
@@ -6575,16 +6648,16 @@
       <c r="I71" s="10"/>
       <c r="J71" s="10"/>
       <c r="K71" s="11" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="L71" t="n" s="0">
         <v>70.0</v>
       </c>
       <c r="M71" t="s" s="0">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="N71" t="n" s="0">
-        <v>5454.0</v>
+        <v>5434.0</v>
       </c>
     </row>
     <row r="72" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
@@ -6592,13 +6665,13 @@
         <v>45493.767738298615</v>
       </c>
       <c r="B72" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="D72" s="9" t="s">
         <v>369</v>
-      </c>
-      <c r="C72" s="8" t="s">
-        <v>370</v>
-      </c>
-      <c r="D72" s="9" t="s">
-        <v>371</v>
       </c>
       <c r="E72" s="8" t="s">
         <v>14</v>
@@ -6610,13 +6683,13 @@
         <v>16</v>
       </c>
       <c r="H72" s="8" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I72" s="8" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="J72" s="8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K72" s="6">
         <v>5052783363</v>
@@ -6625,7 +6698,7 @@
         <v>71.0</v>
       </c>
       <c r="M72" t="s" s="0">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="N72" t="n" s="0">
         <v>0.0</v>
@@ -6636,13 +6709,13 @@
         <v>45493.778653483794</v>
       </c>
       <c r="B73" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="D73" s="9" t="s">
         <v>374</v>
-      </c>
-      <c r="C73" s="8" t="s">
-        <v>375</v>
-      </c>
-      <c r="D73" s="9" t="s">
-        <v>376</v>
       </c>
       <c r="E73" s="8" t="s">
         <v>14</v>
@@ -6654,22 +6727,22 @@
         <v>81</v>
       </c>
       <c r="H73" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="I73" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="J73" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="K73" s="11" t="s">
         <v>377</v>
-      </c>
-      <c r="I73" s="8" t="s">
-        <v>378</v>
-      </c>
-      <c r="J73" s="8" t="s">
-        <v>378</v>
-      </c>
-      <c r="K73" s="11" t="s">
-        <v>379</v>
       </c>
       <c r="L73" t="n" s="0">
         <v>72.0</v>
       </c>
       <c r="M73" t="s" s="0">
-        <v>934</v>
+        <v>917</v>
       </c>
       <c r="N73" t="n" s="0">
         <v>0.0</v>
@@ -6680,19 +6753,19 @@
         <v>45493.780843645829</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>992</v>
+        <v>967</v>
       </c>
       <c r="E74" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G74" s="8" t="s">
         <v>28</v>
@@ -6701,13 +6774,13 @@
       <c r="I74" s="10"/>
       <c r="J74" s="10"/>
       <c r="K74" s="11" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="L74" t="n" s="0">
         <v>73.0</v>
       </c>
       <c r="M74" t="s" s="0">
-        <v>937</v>
+        <v>920</v>
       </c>
       <c r="N74" t="n" s="0">
         <v>0.0</v>
@@ -6718,40 +6791,40 @@
         <v>45493.809044664347</v>
       </c>
       <c r="B75" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="D75" s="9" t="s">
         <v>383</v>
       </c>
-      <c r="C75" s="8" t="s">
-        <v>384</v>
-      </c>
-      <c r="D75" s="9" t="s">
-        <v>385</v>
-      </c>
       <c r="E75" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G75" s="8" t="s">
         <v>81</v>
       </c>
       <c r="H75" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="I75" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="J75" s="8" t="s">
         <v>386</v>
       </c>
-      <c r="I75" s="8" t="s">
+      <c r="K75" s="6" t="s">
         <v>387</v>
-      </c>
-      <c r="J75" s="8" t="s">
-        <v>388</v>
-      </c>
-      <c r="K75" s="6" t="s">
-        <v>389</v>
       </c>
       <c r="L75" t="n" s="0">
         <v>74.0</v>
       </c>
       <c r="M75" t="s" s="0">
-        <v>936</v>
+        <v>919</v>
       </c>
       <c r="N75" t="n" s="0">
         <v>5306.0</v>
@@ -6762,13 +6835,13 @@
         <v>45493.820163425931</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>964</v>
+        <v>942</v>
       </c>
       <c r="E76" s="8" t="s">
         <v>22</v>
@@ -6783,22 +6856,22 @@
         <v>55</v>
       </c>
       <c r="I76" s="8" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="J76" s="8" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="K76" s="11" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="L76" t="n" s="0">
         <v>75.0</v>
       </c>
       <c r="M76" t="s" s="0">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="N76" t="n" s="0">
-        <v>4982.0</v>
+        <v>5239.0</v>
       </c>
     </row>
     <row r="77" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
@@ -6806,43 +6879,43 @@
         <v>45493.829700428236</v>
       </c>
       <c r="B77" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="D77" s="9" t="s">
         <v>394</v>
       </c>
-      <c r="C77" s="8" t="s">
+      <c r="E77" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F77" s="8" t="s">
         <v>395</v>
-      </c>
-      <c r="D77" s="9" t="s">
-        <v>396</v>
-      </c>
-      <c r="E77" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F77" s="8" t="s">
-        <v>397</v>
       </c>
       <c r="G77" s="8" t="s">
         <v>16</v>
       </c>
       <c r="H77" s="8" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="I77" s="8" t="s">
         <v>56</v>
       </c>
       <c r="J77" s="8" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="K77" s="6" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="L77" t="n" s="0">
         <v>76.0</v>
       </c>
       <c r="M77" t="s" s="0">
-        <v>937</v>
+        <v>920</v>
       </c>
       <c r="N77" t="n" s="0">
-        <v>5597.0</v>
+        <v>5663.0</v>
       </c>
     </row>
     <row r="78" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
@@ -6850,13 +6923,13 @@
         <v>45493.893626724537</v>
       </c>
       <c r="B78" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="D78" s="9" t="s">
         <v>401</v>
-      </c>
-      <c r="C78" s="8" t="s">
-        <v>402</v>
-      </c>
-      <c r="D78" s="9" t="s">
-        <v>403</v>
       </c>
       <c r="E78" s="8" t="s">
         <v>14</v>
@@ -6871,10 +6944,10 @@
         <v>82</v>
       </c>
       <c r="I78" s="8" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="J78" s="8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="K78" s="6">
         <v>5323934528</v>
@@ -6883,10 +6956,10 @@
         <v>77.0</v>
       </c>
       <c r="M78" t="s" s="0">
-        <v>934</v>
+        <v>917</v>
       </c>
       <c r="N78" t="n" s="0">
-        <v>5684.0</v>
+        <v>5703.0</v>
       </c>
     </row>
     <row r="79" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
@@ -6894,13 +6967,13 @@
         <v>45494.209353055558</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>969</v>
+        <v>947</v>
       </c>
       <c r="E79" s="8" t="s">
         <v>14</v>
@@ -6915,13 +6988,13 @@
         <v>55</v>
       </c>
       <c r="I79" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="J79" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K79" s="11" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="L79" t="n" s="0">
         <v>78.0</v>
@@ -6936,43 +7009,43 @@
         <v>45494.33363241898</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>967</v>
+        <v>945</v>
       </c>
       <c r="E80" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G80" s="8" t="s">
         <v>16</v>
       </c>
       <c r="H80" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="I80" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="J80" s="8" t="s">
         <v>411</v>
       </c>
-      <c r="I80" s="8" t="s">
+      <c r="K80" s="11" t="s">
         <v>412</v>
-      </c>
-      <c r="J80" s="8" t="s">
-        <v>413</v>
-      </c>
-      <c r="K80" s="11" t="s">
-        <v>414</v>
       </c>
       <c r="L80" t="n" s="0">
         <v>79.0</v>
       </c>
       <c r="M80" t="s" s="0">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="N80" t="n" s="0">
-        <v>4506.0</v>
+        <v>4447.0</v>
       </c>
     </row>
     <row r="81" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -6980,41 +7053,41 @@
         <v>45494.366636203704</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>955</v>
+        <v>933</v>
       </c>
       <c r="E81" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F81" s="8" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G81" s="8" t="s">
         <v>45</v>
       </c>
       <c r="H81" s="8" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="I81" s="8" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="J81" s="10"/>
       <c r="K81" s="11" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="L81" t="n" s="0">
         <v>80.0</v>
       </c>
       <c r="M81" t="s" s="0">
-        <v>936</v>
+        <v>919</v>
       </c>
       <c r="N81" t="n" s="0">
-        <v>5128.0</v>
+        <v>5023.0</v>
       </c>
     </row>
     <row r="82" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
@@ -7022,13 +7095,13 @@
         <v>45494.420342152778</v>
       </c>
       <c r="B82" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="D82" s="9" t="s">
         <v>420</v>
-      </c>
-      <c r="C82" s="8" t="s">
-        <v>421</v>
-      </c>
-      <c r="D82" s="9" t="s">
-        <v>422</v>
       </c>
       <c r="E82" s="8" t="s">
         <v>14</v>
@@ -7043,10 +7116,10 @@
         <v>55</v>
       </c>
       <c r="I82" s="8" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="J82" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K82" s="13">
         <v>5547114818</v>
@@ -7055,7 +7128,7 @@
         <v>81.0</v>
       </c>
       <c r="M82" t="s" s="0">
-        <v>937</v>
+        <v>920</v>
       </c>
       <c r="N82" t="n" s="0">
         <v>4957.0</v>
@@ -7066,13 +7139,13 @@
         <v>45494.504502071759</v>
       </c>
       <c r="B83" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="D83" s="9" t="s">
         <v>424</v>
-      </c>
-      <c r="C83" s="8" t="s">
-        <v>425</v>
-      </c>
-      <c r="D83" s="9" t="s">
-        <v>426</v>
       </c>
       <c r="E83" s="8" t="s">
         <v>14</v>
@@ -7085,16 +7158,16 @@
       <c r="I83" s="10"/>
       <c r="J83" s="10"/>
       <c r="K83" s="11" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="L83" t="n" s="0">
         <v>82.0</v>
       </c>
       <c r="M83" t="s" s="0">
-        <v>936</v>
+        <v>919</v>
       </c>
       <c r="N83" t="n" s="0">
-        <v>5510.0</v>
+        <v>5624.0</v>
       </c>
     </row>
     <row r="84" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
@@ -7102,13 +7175,13 @@
         <v>45494.507313888884</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>960</v>
+        <v>938</v>
       </c>
       <c r="E84" s="8" t="s">
         <v>14</v>
@@ -7120,13 +7193,13 @@
         <v>16</v>
       </c>
       <c r="H84" s="8" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="I84" s="8" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="J84" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="K84" s="6">
         <v>5353063483</v>
@@ -7135,10 +7208,10 @@
         <v>83.0</v>
       </c>
       <c r="M84" t="s" s="0">
-        <v>938</v>
+        <v>921</v>
       </c>
       <c r="N84" t="n" s="0">
-        <v>5867.0</v>
+        <v>5807.0</v>
       </c>
     </row>
     <row r="85" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
@@ -7146,13 +7219,13 @@
         <v>45494.513415717593</v>
       </c>
       <c r="B85" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="D85" s="9" t="s">
         <v>432</v>
-      </c>
-      <c r="C85" s="8" t="s">
-        <v>433</v>
-      </c>
-      <c r="D85" s="9" t="s">
-        <v>434</v>
       </c>
       <c r="E85" s="8" t="s">
         <v>14</v>
@@ -7164,22 +7237,22 @@
         <v>16</v>
       </c>
       <c r="H85" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="I85" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="J85" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="K85" s="11" t="s">
         <v>435</v>
-      </c>
-      <c r="I85" s="8" t="s">
-        <v>392</v>
-      </c>
-      <c r="J85" s="8" t="s">
-        <v>436</v>
-      </c>
-      <c r="K85" s="11" t="s">
-        <v>437</v>
       </c>
       <c r="L85" t="n" s="0">
         <v>84.0</v>
       </c>
       <c r="M85" t="s" s="0">
-        <v>934</v>
+        <v>917</v>
       </c>
       <c r="N85" t="n" s="0">
         <v>0.0</v>
@@ -7190,13 +7263,13 @@
         <v>45494.523148090273</v>
       </c>
       <c r="B86" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="D86" s="9" t="s">
         <v>438</v>
-      </c>
-      <c r="C86" s="8" t="s">
-        <v>439</v>
-      </c>
-      <c r="D86" s="9" t="s">
-        <v>440</v>
       </c>
       <c r="E86" s="8" t="s">
         <v>14</v>
@@ -7208,22 +7281,22 @@
         <v>16</v>
       </c>
       <c r="H86" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="I86" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="J86" s="8" t="s">
         <v>441</v>
       </c>
-      <c r="I86" s="8" t="s">
+      <c r="K86" s="6" t="s">
         <v>442</v>
-      </c>
-      <c r="J86" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="K86" s="6" t="s">
-        <v>444</v>
       </c>
       <c r="L86" t="n" s="0">
         <v>85.0</v>
       </c>
       <c r="M86" t="s" s="0">
-        <v>934</v>
+        <v>917</v>
       </c>
       <c r="N86" t="n" s="0">
         <v>0.0</v>
@@ -7234,13 +7307,13 @@
         <v>45494.530411851854</v>
       </c>
       <c r="B87" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="D87" s="9" t="s">
         <v>445</v>
-      </c>
-      <c r="C87" s="8" t="s">
-        <v>446</v>
-      </c>
-      <c r="D87" s="9" t="s">
-        <v>447</v>
       </c>
       <c r="E87" s="8" t="s">
         <v>14</v>
@@ -7261,7 +7334,7 @@
         <v>86.0</v>
       </c>
       <c r="M87" t="s" s="0">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="N87" t="n" s="0">
         <v>0.0</v>
@@ -7272,13 +7345,13 @@
         <v>45494.535125902781</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>970</v>
+        <v>948</v>
       </c>
       <c r="E88" s="8" t="s">
         <v>22</v>
@@ -7290,13 +7363,13 @@
         <v>16</v>
       </c>
       <c r="H88" s="8" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="I88" s="8" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="J88" s="8" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K88" s="6">
         <v>5072324360</v>
@@ -7305,7 +7378,7 @@
         <v>87.0</v>
       </c>
       <c r="M88" t="s" s="0">
-        <v>935</v>
+        <v>918</v>
       </c>
       <c r="N88" t="n" s="0">
         <v>0.0</v>
@@ -7316,13 +7389,13 @@
         <v>45494.545001550927</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>971</v>
+        <v>949</v>
       </c>
       <c r="E89" s="8" t="s">
         <v>22</v>
@@ -7337,10 +7410,10 @@
         <v>55</v>
       </c>
       <c r="I89" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="J89" s="8" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K89" s="6">
         <v>5072324360</v>
@@ -7358,13 +7431,13 @@
         <v>45494.551669780092</v>
       </c>
       <c r="B90" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="D90" s="9" t="s">
         <v>453</v>
-      </c>
-      <c r="C90" s="8" t="s">
-        <v>454</v>
-      </c>
-      <c r="D90" s="9" t="s">
-        <v>455</v>
       </c>
       <c r="E90" s="8" t="s">
         <v>14</v>
@@ -7377,16 +7450,16 @@
       <c r="I90" s="10"/>
       <c r="J90" s="10"/>
       <c r="K90" s="11" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="L90" t="n" s="0">
         <v>89.0</v>
       </c>
       <c r="M90" t="s" s="0">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="N90" t="n" s="0">
-        <v>5437.0</v>
+        <v>5375.0</v>
       </c>
     </row>
     <row r="91" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
@@ -7394,13 +7467,13 @@
         <v>45494.567043726856</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>994</v>
+        <v>969</v>
       </c>
       <c r="E91" s="8" t="s">
         <v>14</v>
@@ -7412,25 +7485,25 @@
         <v>16</v>
       </c>
       <c r="H91" s="8" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="I91" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="J91" s="8" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="K91" s="11" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="L91" t="n" s="0">
         <v>90.0</v>
       </c>
       <c r="M91" t="s" s="0">
-        <v>938</v>
+        <v>921</v>
       </c>
       <c r="N91" t="n" s="0">
-        <v>5060.0</v>
+        <v>5120.0</v>
       </c>
     </row>
     <row r="92" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
@@ -7438,13 +7511,13 @@
         <v>45494.576464652782</v>
       </c>
       <c r="B92" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="D92" s="9" t="s">
         <v>461</v>
-      </c>
-      <c r="C92" s="8" t="s">
-        <v>462</v>
-      </c>
-      <c r="D92" s="9" t="s">
-        <v>463</v>
       </c>
       <c r="E92" s="8" t="s">
         <v>14</v>
@@ -7459,13 +7532,13 @@
         <v>55</v>
       </c>
       <c r="I92" s="8" t="s">
+        <v>462</v>
+      </c>
+      <c r="J92" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="K92" s="6" t="s">
         <v>464</v>
-      </c>
-      <c r="J92" s="8" t="s">
-        <v>465</v>
-      </c>
-      <c r="K92" s="6" t="s">
-        <v>466</v>
       </c>
       <c r="L92" t="n" s="0">
         <v>91.0</v>
@@ -7480,13 +7553,13 @@
         <v>45494.608395995368</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>988</v>
+        <v>964</v>
       </c>
       <c r="E93" s="8" t="s">
         <v>14</v>
@@ -7505,10 +7578,10 @@
         <v>92.0</v>
       </c>
       <c r="M93" t="s" s="0">
-        <v>940</v>
+        <v>923</v>
       </c>
       <c r="N93" t="n" s="0">
-        <v>5336.0</v>
+        <v>5390.0</v>
       </c>
     </row>
     <row r="94" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
@@ -7516,19 +7589,19 @@
         <v>45494.617219027779</v>
       </c>
       <c r="B94" s="8" t="s">
+        <v>467</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="D94" s="9" t="s">
         <v>469</v>
       </c>
-      <c r="C94" s="8" t="s">
+      <c r="E94" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F94" s="8" t="s">
         <v>470</v>
-      </c>
-      <c r="D94" s="9" t="s">
-        <v>471</v>
-      </c>
-      <c r="E94" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F94" s="8" t="s">
-        <v>472</v>
       </c>
       <c r="G94" s="8" t="s">
         <v>16</v>
@@ -7537,10 +7610,10 @@
         <v>55</v>
       </c>
       <c r="I94" s="8" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="J94" s="8" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="K94" s="6">
         <v>5543528826</v>
@@ -7549,7 +7622,7 @@
         <v>93.0</v>
       </c>
       <c r="M94" t="s" s="0">
-        <v>937</v>
+        <v>920</v>
       </c>
       <c r="N94" t="n" s="0">
         <v>0.0</v>
@@ -7560,13 +7633,13 @@
         <v>45494.798362048612</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>989</v>
+        <v>965</v>
       </c>
       <c r="E95" s="8" t="s">
         <v>14</v>
@@ -7579,16 +7652,16 @@
       <c r="I95" s="10"/>
       <c r="J95" s="10"/>
       <c r="K95" s="11" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="L95" t="n" s="0">
         <v>94.0</v>
       </c>
       <c r="M95" t="s" s="0">
-        <v>934</v>
+        <v>917</v>
       </c>
       <c r="N95" t="n" s="0">
-        <v>4745.0</v>
+        <v>4740.0</v>
       </c>
     </row>
     <row r="96" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
@@ -7596,13 +7669,13 @@
         <v>45494.826437395837</v>
       </c>
       <c r="B96" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="D96" s="9" t="s">
         <v>477</v>
-      </c>
-      <c r="C96" s="8" t="s">
-        <v>478</v>
-      </c>
-      <c r="D96" s="9" t="s">
-        <v>479</v>
       </c>
       <c r="E96" s="8" t="s">
         <v>14</v>
@@ -7617,22 +7690,22 @@
         <v>146</v>
       </c>
       <c r="I96" s="8" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="J96" s="8" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="K96" s="11" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="L96" t="n" s="0">
         <v>95.0</v>
       </c>
       <c r="M96" t="s" s="0">
-        <v>934</v>
+        <v>917</v>
       </c>
       <c r="N96" t="n" s="0">
-        <v>5581.0</v>
+        <v>5648.0</v>
       </c>
     </row>
     <row r="97" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
@@ -7640,19 +7713,19 @@
         <v>45494.866398182872</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>993</v>
+        <v>968</v>
       </c>
       <c r="E97" s="8" t="s">
         <v>22</v>
       </c>
       <c r="F97" s="8" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G97" s="10"/>
       <c r="H97" s="10"/>
@@ -7665,51 +7738,51 @@
         <v>96.0</v>
       </c>
       <c r="M97" t="s" s="0">
-        <v>939</v>
+        <v>922</v>
       </c>
       <c r="N97" t="n" s="0">
-        <v>4707.0</v>
+        <v>4649.0</v>
       </c>
     </row>
     <row r="98" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A98" t="s" s="0">
-        <v>1010</v>
+        <v>984</v>
       </c>
       <c r="B98" t="s" s="0">
-        <v>1011</v>
+        <v>979</v>
       </c>
       <c r="C98" t="s" s="0">
-        <v>485</v>
-      </c>
-      <c r="D98" t="s" s="4">
-        <v>1012</v>
+        <v>482</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>980</v>
       </c>
       <c r="E98" t="s" s="0">
         <v>14</v>
       </c>
       <c r="F98" t="s" s="0">
-        <v>1013</v>
+        <v>981</v>
       </c>
       <c r="G98" s="8" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="H98" s="8" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="I98" s="8" t="s">
         <v>177</v>
       </c>
       <c r="J98" s="8" t="s">
-        <v>488</v>
-      </c>
-      <c r="K98" t="s" s="2">
-        <v>489</v>
+        <v>485</v>
+      </c>
+      <c r="K98" s="2" t="s">
+        <v>486</v>
       </c>
       <c r="L98" t="n" s="0">
         <v>97.0</v>
       </c>
       <c r="M98" t="s" s="0">
-        <v>934</v>
+        <v>917</v>
       </c>
       <c r="N98" t="n" s="0">
         <v>0.0</v>
@@ -7717,16 +7790,16 @@
     </row>
     <row r="99" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A99" t="s" s="0">
-        <v>1009</v>
+        <v>978</v>
       </c>
       <c r="B99" t="s" s="0">
-        <v>1005</v>
+        <v>974</v>
       </c>
       <c r="C99" t="s" s="0">
-        <v>491</v>
-      </c>
-      <c r="D99" t="s" s="4">
-        <v>1006</v>
+        <v>487</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>975</v>
       </c>
       <c r="E99" t="s" s="0">
         <v>22</v>
@@ -7738,22 +7811,22 @@
         <v>16</v>
       </c>
       <c r="H99" s="8" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="I99" s="8" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="J99" s="8" t="s">
-        <v>495</v>
-      </c>
-      <c r="K99" t="s" s="2">
-        <v>496</v>
+        <v>491</v>
+      </c>
+      <c r="K99" s="2" t="s">
+        <v>492</v>
       </c>
       <c r="L99" t="n" s="0">
         <v>98.0</v>
       </c>
       <c r="M99" t="s" s="0">
-        <v>939</v>
+        <v>922</v>
       </c>
       <c r="N99" t="n" s="0">
         <v>0.0</v>
@@ -7764,13 +7837,13 @@
         <v>45495.411989097222</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="E100" s="8" t="s">
         <v>14</v>
@@ -7785,10 +7858,10 @@
         <v>55</v>
       </c>
       <c r="I100" s="8" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="J100" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K100" s="6">
         <v>5343331307</v>
@@ -7796,9 +7869,11 @@
       <c r="L100" t="n" s="0">
         <v>99.0</v>
       </c>
-      <c r="M100" s="0"/>
+      <c r="M100" t="s" s="0">
+        <v>920</v>
+      </c>
       <c r="N100" t="n" s="0">
-        <v>4732.0</v>
+        <v>4729.0</v>
       </c>
     </row>
     <row r="101" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
@@ -7806,13 +7881,13 @@
         <v>45495.500425636579</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>972</v>
+        <v>950</v>
       </c>
       <c r="E101" s="8" t="s">
         <v>14</v>
@@ -7824,13 +7899,13 @@
         <v>16</v>
       </c>
       <c r="H101" s="8" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="I101" s="8" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="J101" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K101" s="6">
         <v>5432297840</v>
@@ -7839,10 +7914,10 @@
         <v>100.0</v>
       </c>
       <c r="M101" t="s" s="0">
-        <v>934</v>
+        <v>917</v>
       </c>
       <c r="N101" t="n" s="0">
-        <v>5168.0</v>
+        <v>5158.0</v>
       </c>
     </row>
     <row r="102" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
@@ -7850,13 +7925,13 @@
         <v>45495.562922129626</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>960</v>
+        <v>938</v>
       </c>
       <c r="E102" s="8" t="s">
         <v>14</v>
@@ -7868,25 +7943,25 @@
         <v>16</v>
       </c>
       <c r="H102" s="8" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="I102" s="8" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="J102" s="8" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="K102" s="11" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="L102" t="n" s="0">
         <v>101.0</v>
       </c>
       <c r="M102" t="s" s="0">
-        <v>938</v>
+        <v>921</v>
       </c>
       <c r="N102" t="n" s="0">
-        <v>4548.0</v>
+        <v>4549.0</v>
       </c>
     </row>
     <row r="103" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
@@ -7894,10 +7969,10 @@
         <v>45495.565215949071</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="D103" s="5" t="s">
         <v>111</v>
@@ -7912,25 +7987,25 @@
         <v>16</v>
       </c>
       <c r="H103" s="8" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="I103" s="8" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="J103" s="8" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="K103" s="11" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="L103" t="n" s="0">
         <v>102.0</v>
       </c>
       <c r="M103" t="s" s="0">
-        <v>938</v>
+        <v>921</v>
       </c>
       <c r="N103" t="n" s="0">
-        <v>4390.0</v>
+        <v>4389.0</v>
       </c>
     </row>
     <row r="104" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
@@ -7938,13 +8013,13 @@
         <v>45495.588221203703</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="E104" s="8" t="s">
         <v>14</v>
@@ -7967,50 +8042,50 @@
         <v>103.0</v>
       </c>
       <c r="M104" t="s" s="0">
-        <v>940</v>
+        <v>923</v>
       </c>
       <c r="N104" t="n" s="0">
         <v>4489.0</v>
       </c>
     </row>
     <row r="105" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A105" s="7">
-        <v>45495.689971585649</v>
-      </c>
-      <c r="B105" s="8" t="s">
-        <v>518</v>
-      </c>
-      <c r="C105" s="8" t="s">
-        <v>519</v>
-      </c>
-      <c r="D105" s="9" t="s">
-        <v>520</v>
-      </c>
-      <c r="E105" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F105" s="8" t="s">
-        <v>521</v>
+      <c r="A105" t="s" s="0">
+        <v>999</v>
+      </c>
+      <c r="B105" t="s" s="0">
+        <v>988</v>
+      </c>
+      <c r="C105" t="s" s="0">
+        <v>514</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>989</v>
+      </c>
+      <c r="E105" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F105" t="s" s="0">
+        <v>515</v>
       </c>
       <c r="G105" s="8" t="s">
         <v>16</v>
       </c>
       <c r="H105" s="8" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="I105" s="10"/>
       <c r="J105" s="10"/>
-      <c r="K105" s="11" t="s">
-        <v>522</v>
+      <c r="K105" s="2" t="s">
+        <v>516</v>
       </c>
       <c r="L105" t="n" s="0">
         <v>104.0</v>
       </c>
       <c r="M105" t="s" s="0">
-        <v>941</v>
+        <v>919</v>
       </c>
       <c r="N105" t="n" s="0">
-        <v>4958.0</v>
+        <v>4941.0</v>
       </c>
     </row>
     <row r="106" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
@@ -8018,39 +8093,39 @@
         <v>45495.795682870375</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>974</v>
+        <v>951</v>
       </c>
       <c r="E106" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F106" s="8" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G106" s="10"/>
       <c r="H106" s="10"/>
       <c r="I106" s="8" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="J106" s="8" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="K106" s="11" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="L106" t="n" s="0">
         <v>105.0</v>
       </c>
       <c r="M106" t="s" s="0">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="N106" t="n" s="0">
-        <v>5298.0</v>
+        <v>5481.0</v>
       </c>
     </row>
     <row r="107" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
@@ -8058,19 +8133,19 @@
         <v>45495.798205150466</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>975</v>
+        <v>952</v>
       </c>
       <c r="E107" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F107" s="8" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="G107" s="8" t="s">
         <v>16</v>
@@ -8079,36 +8154,36 @@
       <c r="I107" s="10"/>
       <c r="J107" s="10"/>
       <c r="K107" s="11" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="L107" t="n" s="0">
         <v>106.0</v>
       </c>
       <c r="M107" t="s" s="0">
-        <v>938</v>
+        <v>921</v>
       </c>
       <c r="N107" t="n" s="0">
-        <v>4848.0</v>
+        <v>4850.0</v>
       </c>
     </row>
     <row r="108" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A108" s="7">
-        <v>45495.806039803239</v>
-      </c>
-      <c r="B108" s="8" t="s">
-        <v>532</v>
-      </c>
-      <c r="C108" s="8" t="s">
-        <v>533</v>
-      </c>
-      <c r="D108" s="9" t="s">
-        <v>534</v>
-      </c>
-      <c r="E108" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F108" s="8" t="s">
-        <v>535</v>
+      <c r="A108" t="s" s="0">
+        <v>985</v>
+      </c>
+      <c r="B108" t="s" s="0">
+        <v>986</v>
+      </c>
+      <c r="C108" t="s" s="0">
+        <v>526</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>987</v>
+      </c>
+      <c r="E108" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F108" t="s" s="0">
+        <v>527</v>
       </c>
       <c r="G108" s="8" t="s">
         <v>16</v>
@@ -8117,63 +8192,63 @@
         <v>131</v>
       </c>
       <c r="I108" s="8" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="J108" s="8" t="s">
-        <v>537</v>
-      </c>
-      <c r="K108" s="11" t="s">
-        <v>538</v>
+        <v>529</v>
+      </c>
+      <c r="K108" s="2" t="s">
+        <v>530</v>
       </c>
       <c r="L108" t="n" s="0">
         <v>107.0</v>
       </c>
       <c r="M108" t="s" s="0">
-        <v>941</v>
+        <v>919</v>
       </c>
       <c r="N108" t="n" s="0">
-        <v>5076.0</v>
+        <v>5056.0</v>
       </c>
     </row>
     <row r="109" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A109" s="7">
-        <v>45495.885342384259</v>
-      </c>
-      <c r="B109" s="8" t="s">
-        <v>539</v>
-      </c>
-      <c r="C109" s="8" t="s">
-        <v>540</v>
-      </c>
-      <c r="D109" s="9" t="s">
-        <v>541</v>
-      </c>
-      <c r="E109" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F109" s="8" t="s">
+      <c r="A109" t="s" s="0">
+        <v>990</v>
+      </c>
+      <c r="B109" t="s" s="0">
+        <v>991</v>
+      </c>
+      <c r="C109" t="s" s="0">
+        <v>531</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>992</v>
+      </c>
+      <c r="E109" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F109" t="s" s="0">
         <v>80</v>
       </c>
       <c r="G109" s="8" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="H109" s="8" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="I109" s="8" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="J109" s="8" t="s">
-        <v>544</v>
-      </c>
-      <c r="K109" s="11" t="s">
-        <v>545</v>
+        <v>534</v>
+      </c>
+      <c r="K109" s="2" t="s">
+        <v>535</v>
       </c>
       <c r="L109" t="n" s="0">
         <v>108.0</v>
       </c>
       <c r="M109" t="s" s="0">
-        <v>941</v>
+        <v>919</v>
       </c>
       <c r="N109" t="n" s="0">
         <v>0.0</v>
@@ -8184,13 +8259,13 @@
         <v>45495.934726516207</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="E110" s="8" t="s">
         <v>22</v>
@@ -8205,10 +8280,10 @@
         <v>55</v>
       </c>
       <c r="I110" s="8" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="J110" s="8" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="K110" s="6">
         <v>5548842021</v>
@@ -8226,43 +8301,43 @@
         <v>45495.981596018522</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>976</v>
+        <v>953</v>
       </c>
       <c r="E111" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F111" s="8" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="G111" s="8" t="s">
         <v>50</v>
       </c>
       <c r="H111" s="8" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="I111" s="8" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="J111" s="8" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="K111" s="11" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="L111" t="n" s="0">
         <v>110.0</v>
       </c>
       <c r="M111" t="s" s="0">
-        <v>937</v>
+        <v>920</v>
       </c>
       <c r="N111" t="n" s="0">
-        <v>5359.0</v>
+        <v>5366.0</v>
       </c>
     </row>
     <row r="112" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
@@ -8270,43 +8345,43 @@
         <v>45495.995709675924</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="E112" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F112" s="8" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="G112" s="8" t="s">
         <v>16</v>
       </c>
       <c r="H112" s="8" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="I112" s="8" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="J112" s="8" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="K112" s="14" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="L112" t="n" s="0">
         <v>111.0</v>
       </c>
       <c r="M112" t="s" s="0">
-        <v>938</v>
+        <v>921</v>
       </c>
       <c r="N112" t="n" s="0">
-        <v>4999.0</v>
+        <v>4968.0</v>
       </c>
     </row>
     <row r="113" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
@@ -8314,32 +8389,32 @@
         <v>45495.99848962963</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="D113" s="9" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="E113" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F113" s="8" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G113" s="10"/>
       <c r="H113" s="10"/>
       <c r="I113" s="10"/>
       <c r="J113" s="10"/>
       <c r="K113" s="11" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="L113" t="n" s="0">
         <v>112.0</v>
       </c>
       <c r="M113" t="s" s="0">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="N113" t="n" s="0">
         <v>5282.0</v>
@@ -8350,43 +8425,43 @@
         <v>45495.99884508102</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="D114" s="9" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="E114" s="8" t="s">
         <v>22</v>
       </c>
       <c r="F114" s="8" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="G114" s="8" t="s">
         <v>16</v>
       </c>
       <c r="H114" s="8" t="s">
+        <v>550</v>
+      </c>
+      <c r="I114" s="8" t="s">
+        <v>551</v>
+      </c>
+      <c r="J114" s="8" t="s">
         <v>560</v>
       </c>
-      <c r="I114" s="8" t="s">
+      <c r="K114" s="11" t="s">
         <v>561</v>
-      </c>
-      <c r="J114" s="8" t="s">
-        <v>570</v>
-      </c>
-      <c r="K114" s="11" t="s">
-        <v>571</v>
       </c>
       <c r="L114" t="n" s="0">
         <v>113.0</v>
       </c>
       <c r="M114" t="s" s="0">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="N114" t="n" s="0">
-        <v>4370.0</v>
+        <v>4468.0</v>
       </c>
     </row>
     <row r="115" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
@@ -8394,43 +8469,43 @@
         <v>45496.367527025461</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="D115" s="9" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="E115" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F115" s="8" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="G115" s="8" t="s">
         <v>16</v>
       </c>
       <c r="H115" s="8" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="I115" s="8" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="J115" s="8" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="K115" s="11" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="L115" t="n" s="0">
         <v>114.0</v>
       </c>
       <c r="M115" t="s" s="0">
-        <v>938</v>
+        <v>921</v>
       </c>
       <c r="N115" t="n" s="0">
-        <v>5038.0</v>
+        <v>5019.0</v>
       </c>
     </row>
     <row r="116" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
@@ -8438,13 +8513,13 @@
         <v>45496.568063530096</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="D116" s="9" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="E116" s="8" t="s">
         <v>14</v>
@@ -8462,19 +8537,19 @@
         <v>36</v>
       </c>
       <c r="J116" s="8" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="K116" s="6" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="L116" t="n" s="0">
         <v>115.0</v>
       </c>
       <c r="M116" t="s" s="0">
-        <v>940</v>
+        <v>923</v>
       </c>
       <c r="N116" t="n" s="0">
-        <v>5052.0</v>
+        <v>4892.0</v>
       </c>
     </row>
     <row r="117" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
@@ -8482,31 +8557,31 @@
         <v>45496.580359791667</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>977</v>
+        <v>954</v>
       </c>
       <c r="E117" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F117" s="8" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="G117" s="8" t="s">
         <v>16</v>
       </c>
       <c r="H117" s="8" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="I117" s="8" t="s">
         <v>107</v>
       </c>
       <c r="J117" s="8" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K117" s="6">
         <v>5383113042</v>
@@ -8515,10 +8590,10 @@
         <v>116.0</v>
       </c>
       <c r="M117" t="s" s="0">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="N117" t="n" s="0">
-        <v>4739.0</v>
+        <v>4774.0</v>
       </c>
     </row>
     <row r="118" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
@@ -8526,13 +8601,13 @@
         <v>45496.650645208334</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="D118" s="9" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="E118" s="8" t="s">
         <v>14</v>
@@ -8551,7 +8626,7 @@
         <v>117.0</v>
       </c>
       <c r="M118" t="s" s="0">
-        <v>934</v>
+        <v>917</v>
       </c>
       <c r="N118" t="n" s="0">
         <v>0.0</v>
@@ -8562,13 +8637,13 @@
         <v>45496.753726678246</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="D119" s="9" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="E119" s="8" t="s">
         <v>14</v>
@@ -8580,25 +8655,25 @@
         <v>50</v>
       </c>
       <c r="H119" s="8" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="I119" s="8" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="J119" s="8" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="K119" s="11" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
       <c r="L119" t="n" s="0">
         <v>118.0</v>
       </c>
       <c r="M119" t="s" s="0">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="N119" t="n" s="0">
-        <v>5242.0</v>
+        <v>5251.0</v>
       </c>
     </row>
     <row r="120" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
@@ -8606,31 +8681,31 @@
         <v>45496.762527534724</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="D120" s="9" t="s">
-        <v>596</v>
+        <v>586</v>
       </c>
       <c r="E120" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F120" s="8" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="G120" s="8" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="H120" s="8" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
       <c r="I120" s="8" t="s">
-        <v>599</v>
+        <v>589</v>
       </c>
       <c r="J120" s="8" t="s">
-        <v>599</v>
+        <v>589</v>
       </c>
       <c r="K120" s="6">
         <v>5437419737</v>
@@ -8639,7 +8714,7 @@
         <v>119.0</v>
       </c>
       <c r="M120" t="s" s="0">
-        <v>937</v>
+        <v>920</v>
       </c>
       <c r="N120" t="n" s="0">
         <v>0.0</v>
@@ -8650,13 +8725,13 @@
         <v>45496.762925138886</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>601</v>
+        <v>591</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>977</v>
+        <v>954</v>
       </c>
       <c r="E121" s="8" t="s">
         <v>14</v>
@@ -8668,13 +8743,13 @@
         <v>50</v>
       </c>
       <c r="H121" s="8" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="I121" s="8" t="s">
         <v>83</v>
       </c>
       <c r="J121" s="8" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
       <c r="K121" s="6">
         <v>5069921916</v>
@@ -8683,10 +8758,10 @@
         <v>120.0</v>
       </c>
       <c r="M121" t="s" s="0">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="N121" t="n" s="0">
-        <v>5514.0</v>
+        <v>5569.0</v>
       </c>
     </row>
     <row r="122" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
@@ -8694,13 +8769,13 @@
         <v>45496.805720173608</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>605</v>
+        <v>595</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>965</v>
+        <v>943</v>
       </c>
       <c r="E122" s="8" t="s">
         <v>14</v>
@@ -8715,19 +8790,19 @@
         <v>131</v>
       </c>
       <c r="I122" s="8" t="s">
-        <v>606</v>
+        <v>596</v>
       </c>
       <c r="J122" s="8" t="s">
-        <v>607</v>
+        <v>597</v>
       </c>
       <c r="K122" s="11" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
       <c r="L122" t="n" s="0">
         <v>121.0</v>
       </c>
       <c r="M122" t="s" s="0">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="N122" t="n" s="0">
         <v>0.0</v>
@@ -8738,40 +8813,40 @@
         <v>45496.831687777776</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>609</v>
+        <v>599</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>978</v>
+        <v>955</v>
       </c>
       <c r="E123" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F123" s="8" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="G123" s="8" t="s">
         <v>16</v>
       </c>
       <c r="H123" s="8" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="I123" s="8" t="s">
         <v>93</v>
       </c>
       <c r="J123" s="8" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="K123" s="11" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
       <c r="L123" t="n" s="0">
         <v>122.0</v>
       </c>
       <c r="M123" t="s" s="0">
-        <v>934</v>
+        <v>917</v>
       </c>
       <c r="N123" t="n" s="0">
         <v>0.0</v>
@@ -8782,31 +8857,31 @@
         <v>45496.886510856479</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>966</v>
+        <v>944</v>
       </c>
       <c r="E124" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F124" s="8" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
       <c r="G124" s="8" t="s">
         <v>16</v>
       </c>
       <c r="H124" s="8" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
       <c r="I124" s="8" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
       <c r="J124" s="8" t="s">
-        <v>619</v>
+        <v>609</v>
       </c>
       <c r="K124" s="6">
         <v>5323379678</v>
@@ -8815,10 +8890,10 @@
         <v>123.0</v>
       </c>
       <c r="M124" t="s" s="0">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="N124" t="n" s="0">
-        <v>5340.0</v>
+        <v>5344.0</v>
       </c>
     </row>
     <row r="125" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
@@ -8826,13 +8901,13 @@
         <v>45496.933743229165</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>621</v>
+        <v>611</v>
       </c>
       <c r="D125" s="9" t="s">
-        <v>622</v>
+        <v>612</v>
       </c>
       <c r="E125" s="8" t="s">
         <v>14</v>
@@ -8847,19 +8922,19 @@
         <v>55</v>
       </c>
       <c r="I125" s="8" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
       <c r="J125" s="8" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
       <c r="K125" s="11" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
       <c r="L125" t="n" s="0">
         <v>124.0</v>
       </c>
       <c r="M125" t="s" s="0">
-        <v>934</v>
+        <v>917</v>
       </c>
       <c r="N125" t="n" s="0">
         <v>0.0</v>
@@ -8870,13 +8945,13 @@
         <v>45496.939104351855</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
       <c r="D126" s="9" t="s">
-        <v>628</v>
+        <v>618</v>
       </c>
       <c r="E126" s="8" t="s">
         <v>14</v>
@@ -8894,7 +8969,7 @@
         <v>34</v>
       </c>
       <c r="J126" s="8" t="s">
-        <v>629</v>
+        <v>619</v>
       </c>
       <c r="K126" s="6">
         <v>5070709963</v>
@@ -8903,7 +8978,7 @@
         <v>125.0</v>
       </c>
       <c r="M126" t="s" s="0">
-        <v>934</v>
+        <v>917</v>
       </c>
       <c r="N126" t="n" s="0">
         <v>0.0</v>
@@ -8914,13 +8989,13 @@
         <v>45497.202016909723</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>630</v>
+        <v>620</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
       <c r="D127" s="9" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
       <c r="E127" s="8" t="s">
         <v>14</v>
@@ -8935,19 +9010,19 @@
         <v>82</v>
       </c>
       <c r="I127" s="8" t="s">
-        <v>633</v>
+        <v>623</v>
       </c>
       <c r="J127" s="8" t="s">
         <v>107</v>
       </c>
       <c r="K127" s="11" t="s">
-        <v>634</v>
+        <v>624</v>
       </c>
       <c r="L127" t="n" s="0">
         <v>126.0</v>
       </c>
       <c r="M127" t="s" s="0">
-        <v>938</v>
+        <v>921</v>
       </c>
       <c r="N127" t="n" s="0">
         <v>4825.0</v>
@@ -8958,40 +9033,40 @@
         <v>45497.523751631947</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>635</v>
+        <v>625</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>636</v>
+        <v>626</v>
       </c>
       <c r="D128" s="9" t="s">
-        <v>637</v>
+        <v>627</v>
       </c>
       <c r="E128" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F128" s="8" t="s">
-        <v>638</v>
+        <v>628</v>
       </c>
       <c r="G128" s="8" t="s">
         <v>45</v>
       </c>
       <c r="H128" s="8" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
       <c r="I128" s="8" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="J128" s="8" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="K128" s="11" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
       <c r="L128" t="n" s="0">
         <v>127.0</v>
       </c>
       <c r="M128" t="s" s="0">
-        <v>934</v>
+        <v>917</v>
       </c>
       <c r="N128" t="n" s="0">
         <v>0.0</v>
@@ -9002,13 +9077,13 @@
         <v>45497.547366180559</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>642</v>
+        <v>632</v>
       </c>
       <c r="C129" s="8" t="s">
         <v>145</v>
       </c>
       <c r="D129" s="9" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="E129" s="8" t="s">
         <v>22</v>
@@ -9020,21 +9095,21 @@
         <v>16</v>
       </c>
       <c r="H129" s="8" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="I129" s="10"/>
       <c r="J129" s="10"/>
       <c r="K129" s="11" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="L129" t="n" s="0">
         <v>128.0</v>
       </c>
       <c r="M129" t="s" s="0">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="N129" t="n" s="0">
-        <v>5274.0</v>
+        <v>5275.0</v>
       </c>
     </row>
     <row r="130" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
@@ -9042,13 +9117,13 @@
         <v>45497.574422465274</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>645</v>
+        <v>635</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>646</v>
+        <v>636</v>
       </c>
       <c r="D130" s="9" t="s">
-        <v>647</v>
+        <v>637</v>
       </c>
       <c r="E130" s="8" t="s">
         <v>22</v>
@@ -9063,22 +9138,22 @@
         <v>55</v>
       </c>
       <c r="I130" s="8" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
       <c r="J130" s="8" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="K130" s="11" t="s">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="L130" t="n" s="0">
         <v>129.0</v>
       </c>
       <c r="M130" t="s" s="0">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="N130" t="n" s="0">
-        <v>5046.0</v>
+        <v>5010.0</v>
       </c>
     </row>
     <row r="131" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
@@ -9086,13 +9161,13 @@
         <v>45497.579386192127</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>652</v>
+        <v>642</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>958</v>
+        <v>936</v>
       </c>
       <c r="E131" s="8" t="s">
         <v>22</v>
@@ -9110,19 +9185,19 @@
         <v>56</v>
       </c>
       <c r="J131" s="8" t="s">
-        <v>653</v>
+        <v>643</v>
       </c>
       <c r="K131" s="11" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
       <c r="L131" t="n" s="0">
         <v>130.0</v>
       </c>
       <c r="M131" t="s" s="0">
-        <v>935</v>
+        <v>918</v>
       </c>
       <c r="N131" t="n" s="0">
-        <v>4991.0</v>
+        <v>5062.0</v>
       </c>
     </row>
     <row r="132" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
@@ -9130,40 +9205,40 @@
         <v>45497.585320590282</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>655</v>
+        <v>645</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>656</v>
+        <v>646</v>
       </c>
       <c r="D132" s="9" t="s">
-        <v>657</v>
+        <v>647</v>
       </c>
       <c r="E132" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F132" s="8" t="s">
-        <v>658</v>
+        <v>648</v>
       </c>
       <c r="G132" s="8" t="s">
         <v>81</v>
       </c>
       <c r="H132" s="8" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="I132" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="J132" s="8" t="s">
-        <v>659</v>
+        <v>649</v>
       </c>
       <c r="K132" s="11" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="L132" t="n" s="0">
         <v>131.0</v>
       </c>
       <c r="M132" t="s" s="0">
-        <v>934</v>
+        <v>917</v>
       </c>
       <c r="N132" t="n" s="0">
         <v>0.0</v>
@@ -9174,43 +9249,43 @@
         <v>45497.598366261576</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>661</v>
+        <v>651</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>662</v>
+        <v>652</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>990</v>
+        <v>966</v>
       </c>
       <c r="E133" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F133" s="8" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
       <c r="G133" s="8" t="s">
         <v>16</v>
       </c>
       <c r="H133" s="8" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="I133" s="8" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
       <c r="J133" s="8" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
       <c r="K133" s="11" t="s">
-        <v>665</v>
+        <v>655</v>
       </c>
       <c r="L133" t="n" s="0">
         <v>132.0</v>
       </c>
       <c r="M133" t="s" s="0">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="N133" t="n" s="0">
-        <v>4801.0</v>
+        <v>4817.0</v>
       </c>
     </row>
     <row r="134" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
@@ -9218,40 +9293,40 @@
         <v>45497.615892534726</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>666</v>
+        <v>656</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>667</v>
+        <v>657</v>
       </c>
       <c r="D134" s="9" t="s">
-        <v>668</v>
+        <v>658</v>
       </c>
       <c r="E134" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F134" s="8" t="s">
-        <v>669</v>
+        <v>659</v>
       </c>
       <c r="G134" s="8" t="s">
         <v>28</v>
       </c>
       <c r="H134" s="8" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
       <c r="I134" s="8" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="J134" s="8" t="s">
-        <v>672</v>
+        <v>662</v>
       </c>
       <c r="K134" s="11" t="s">
-        <v>673</v>
+        <v>663</v>
       </c>
       <c r="L134" t="n" s="0">
         <v>133.0</v>
       </c>
       <c r="M134" t="s" s="0">
-        <v>934</v>
+        <v>917</v>
       </c>
       <c r="N134" t="n" s="0">
         <v>4840.0</v>
@@ -9262,19 +9337,19 @@
         <v>45497.616028703706</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>674</v>
+        <v>664</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>675</v>
+        <v>665</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>970</v>
+        <v>948</v>
       </c>
       <c r="E135" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F135" s="8" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="G135" s="8" t="s">
         <v>28</v>
@@ -9283,19 +9358,19 @@
         <v>55</v>
       </c>
       <c r="I135" s="8" t="s">
-        <v>676</v>
+        <v>666</v>
       </c>
       <c r="J135" s="8" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="K135" s="11" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
       <c r="L135" t="n" s="0">
         <v>134.0</v>
       </c>
       <c r="M135" t="s" s="0">
-        <v>937</v>
+        <v>920</v>
       </c>
       <c r="N135" t="n" s="0">
         <v>0.0</v>
@@ -9306,19 +9381,19 @@
         <v>45497.66693324074</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>678</v>
+        <v>668</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>679</v>
+        <v>669</v>
       </c>
       <c r="D136" s="9" t="s">
-        <v>680</v>
+        <v>670</v>
       </c>
       <c r="E136" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F136" s="8" t="s">
-        <v>681</v>
+        <v>671</v>
       </c>
       <c r="G136" s="8" t="s">
         <v>16</v>
@@ -9327,13 +9402,13 @@
       <c r="I136" s="10"/>
       <c r="J136" s="10"/>
       <c r="K136" s="11" t="s">
-        <v>682</v>
+        <v>672</v>
       </c>
       <c r="L136" t="n" s="0">
         <v>135.0</v>
       </c>
       <c r="M136" t="s" s="0">
-        <v>934</v>
+        <v>917</v>
       </c>
       <c r="N136" t="n" s="0">
         <v>5286.0</v>
@@ -9344,19 +9419,19 @@
         <v>45497.725470914353</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>683</v>
+        <v>673</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>684</v>
+        <v>674</v>
       </c>
       <c r="D137" s="9" t="s">
-        <v>685</v>
+        <v>675</v>
       </c>
       <c r="E137" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F137" s="8" t="s">
-        <v>686</v>
+        <v>676</v>
       </c>
       <c r="G137" s="8" t="s">
         <v>50</v>
@@ -9365,22 +9440,22 @@
         <v>55</v>
       </c>
       <c r="I137" s="8" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="J137" s="8" t="s">
-        <v>688</v>
+        <v>678</v>
       </c>
       <c r="K137" s="11" t="s">
-        <v>689</v>
+        <v>679</v>
       </c>
       <c r="L137" t="n" s="0">
         <v>136.0</v>
       </c>
       <c r="M137" t="s" s="0">
-        <v>934</v>
+        <v>917</v>
       </c>
       <c r="N137" t="n" s="0">
-        <v>4878.0</v>
+        <v>4879.0</v>
       </c>
     </row>
     <row r="138" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
@@ -9388,13 +9463,13 @@
         <v>45497.737565335643</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
       <c r="D138" s="9" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
       <c r="E138" s="8" t="s">
         <v>14</v>
@@ -9406,25 +9481,25 @@
         <v>16</v>
       </c>
       <c r="H138" s="8" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="I138" s="8" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="J138" s="8" t="s">
-        <v>695</v>
+        <v>685</v>
       </c>
       <c r="K138" s="6" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
       <c r="L138" t="n" s="0">
         <v>137.0</v>
       </c>
       <c r="M138" t="s" s="0">
-        <v>937</v>
+        <v>920</v>
       </c>
       <c r="N138" t="n" s="0">
-        <v>5774.0</v>
+        <v>5776.0</v>
       </c>
     </row>
     <row r="139" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
@@ -9432,13 +9507,13 @@
         <v>45497.738898784723</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>697</v>
+        <v>687</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>698</v>
+        <v>688</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>961</v>
+        <v>939</v>
       </c>
       <c r="E139" s="8" t="s">
         <v>14</v>
@@ -9453,10 +9528,10 @@
         <v>55</v>
       </c>
       <c r="I139" s="8" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="J139" s="8" t="s">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="K139" s="6">
         <v>5394192785</v>
@@ -9465,10 +9540,10 @@
         <v>138.0</v>
       </c>
       <c r="M139" t="s" s="0">
-        <v>937</v>
+        <v>920</v>
       </c>
       <c r="N139" t="n" s="0">
-        <v>5445.0</v>
+        <v>5385.0</v>
       </c>
     </row>
     <row r="140" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
@@ -9476,40 +9551,40 @@
         <v>45497.748861944448</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>702</v>
+        <v>692</v>
       </c>
       <c r="D140" s="9" t="s">
-        <v>703</v>
+        <v>693</v>
       </c>
       <c r="E140" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F140" s="8" t="s">
-        <v>704</v>
+        <v>694</v>
       </c>
       <c r="G140" s="8" t="s">
         <v>28</v>
       </c>
       <c r="H140" s="8" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="I140" s="8" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="J140" s="8" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
       <c r="K140" s="11" t="s">
-        <v>706</v>
+        <v>696</v>
       </c>
       <c r="L140" t="n" s="0">
         <v>139.0</v>
       </c>
       <c r="M140" t="s" s="0">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="N140" t="n" s="0">
         <v>0.0</v>
@@ -9520,13 +9595,13 @@
         <v>45497.876831469912</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>708</v>
+        <v>698</v>
       </c>
       <c r="D141" s="9" t="s">
-        <v>709</v>
+        <v>699</v>
       </c>
       <c r="E141" s="8" t="s">
         <v>14</v>
@@ -9545,7 +9620,7 @@
         <v>140.0</v>
       </c>
       <c r="M141" t="s" s="0">
-        <v>937</v>
+        <v>920</v>
       </c>
       <c r="N141" t="n" s="0">
         <v>0.0</v>
@@ -9556,13 +9631,13 @@
         <v>45497.894403715276</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="D142" s="5" t="s">
-        <v>977</v>
+        <v>954</v>
       </c>
       <c r="E142" s="8" t="s">
         <v>14</v>
@@ -9574,22 +9649,22 @@
         <v>16</v>
       </c>
       <c r="H142" s="8" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="I142" s="8" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="J142" s="8" t="s">
-        <v>712</v>
+        <v>702</v>
       </c>
       <c r="K142" s="11" t="s">
-        <v>713</v>
+        <v>703</v>
       </c>
       <c r="L142" t="n" s="0">
         <v>141.0</v>
       </c>
       <c r="M142" t="s" s="0">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="N142" t="n" s="0">
         <v>4896.0</v>
@@ -9600,40 +9675,40 @@
         <v>45497.902257083333</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>714</v>
+        <v>704</v>
       </c>
       <c r="C143" s="8" t="s">
-        <v>715</v>
+        <v>705</v>
       </c>
       <c r="D143" s="9" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="E143" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F143" s="8" t="s">
-        <v>717</v>
+        <v>707</v>
       </c>
       <c r="G143" s="8" t="s">
         <v>16</v>
       </c>
       <c r="H143" s="8" t="s">
-        <v>718</v>
+        <v>708</v>
       </c>
       <c r="I143" s="8" t="s">
-        <v>719</v>
+        <v>709</v>
       </c>
       <c r="J143" s="8" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="K143" s="11" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="L143" t="n" s="0">
         <v>142.0</v>
       </c>
       <c r="M143" t="s" s="0">
-        <v>934</v>
+        <v>917</v>
       </c>
       <c r="N143" t="n" s="0">
         <v>5655.0</v>
@@ -9644,10 +9719,10 @@
         <v>45497.92533135417</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>722</v>
+        <v>712</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>723</v>
+        <v>713</v>
       </c>
       <c r="D144" s="5" t="s">
         <v>111</v>
@@ -9656,19 +9731,19 @@
         <v>14</v>
       </c>
       <c r="F144" s="8" t="s">
-        <v>724</v>
+        <v>714</v>
       </c>
       <c r="G144" s="8" t="s">
         <v>45</v>
       </c>
       <c r="H144" s="8" t="s">
-        <v>725</v>
+        <v>715</v>
       </c>
       <c r="I144" s="8" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="J144" s="8" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
       <c r="K144" s="6">
         <v>5063164684</v>
@@ -9677,10 +9752,10 @@
         <v>143.0</v>
       </c>
       <c r="M144" t="s" s="0">
-        <v>938</v>
+        <v>921</v>
       </c>
       <c r="N144" t="n" s="0">
-        <v>4929.0</v>
+        <v>5120.0</v>
       </c>
     </row>
     <row r="145" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
@@ -9688,19 +9763,19 @@
         <v>45497.961564120371</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>728</v>
+        <v>718</v>
       </c>
       <c r="C145" s="8" t="s">
-        <v>729</v>
+        <v>719</v>
       </c>
       <c r="D145" s="5" t="s">
-        <v>979</v>
+        <v>956</v>
       </c>
       <c r="E145" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F145" s="8" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="G145" s="8" t="s">
         <v>16</v>
@@ -9712,7 +9787,7 @@
         <v>93</v>
       </c>
       <c r="J145" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K145" s="15">
         <v>5425111190</v>
@@ -9721,10 +9796,10 @@
         <v>144.0</v>
       </c>
       <c r="M145" t="s" s="0">
-        <v>938</v>
+        <v>921</v>
       </c>
       <c r="N145" t="n" s="0">
-        <v>5243.0</v>
+        <v>5131.0</v>
       </c>
     </row>
     <row r="146" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
@@ -9732,13 +9807,13 @@
         <v>45497.990608518521</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>730</v>
+        <v>720</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>731</v>
+        <v>721</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>967</v>
+        <v>945</v>
       </c>
       <c r="E146" s="8" t="s">
         <v>14</v>
@@ -9750,22 +9825,22 @@
         <v>16</v>
       </c>
       <c r="H146" s="8" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="I146" s="8" t="s">
-        <v>733</v>
+        <v>723</v>
       </c>
       <c r="J146" s="8" t="s">
-        <v>734</v>
+        <v>724</v>
       </c>
       <c r="K146" s="11" t="s">
-        <v>735</v>
+        <v>725</v>
       </c>
       <c r="L146" t="n" s="0">
         <v>145.0</v>
       </c>
       <c r="M146" t="s" s="0">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="N146" t="n" s="0">
         <v>0.0</v>
@@ -9776,13 +9851,13 @@
         <v>45498.352273472221</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>736</v>
+        <v>726</v>
       </c>
       <c r="C147" s="8" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
       <c r="D147" s="5" t="s">
-        <v>980</v>
+        <v>957</v>
       </c>
       <c r="E147" s="8" t="s">
         <v>14</v>
@@ -9801,10 +9876,10 @@
         <v>146.0</v>
       </c>
       <c r="M147" t="s" s="0">
-        <v>934</v>
+        <v>917</v>
       </c>
       <c r="N147" t="n" s="0">
-        <v>5403.0</v>
+        <v>5460.0</v>
       </c>
     </row>
     <row r="148" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
@@ -9812,19 +9887,19 @@
         <v>45498.404403703702</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>738</v>
+        <v>728</v>
       </c>
       <c r="C148" s="8" t="s">
-        <v>739</v>
+        <v>729</v>
       </c>
       <c r="D148" s="9" t="s">
-        <v>740</v>
+        <v>730</v>
       </c>
       <c r="E148" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F148" s="8" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
       <c r="G148" s="8" t="s">
         <v>28</v>
@@ -9836,7 +9911,7 @@
         <v>56</v>
       </c>
       <c r="J148" s="8" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
       <c r="K148" s="6">
         <v>5355877331</v>
@@ -9845,10 +9920,10 @@
         <v>147.0</v>
       </c>
       <c r="M148" t="s" s="0">
-        <v>934</v>
+        <v>917</v>
       </c>
       <c r="N148" t="n" s="0">
-        <v>5115.0</v>
+        <v>5291.0</v>
       </c>
     </row>
     <row r="149" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
@@ -9856,13 +9931,13 @@
         <v>45498.486619641204</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>743</v>
+        <v>733</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>744</v>
+        <v>734</v>
       </c>
       <c r="D149" s="9" t="s">
-        <v>745</v>
+        <v>735</v>
       </c>
       <c r="E149" s="8" t="s">
         <v>14</v>
@@ -9874,7 +9949,7 @@
         <v>16</v>
       </c>
       <c r="H149" s="8" t="s">
-        <v>746</v>
+        <v>736</v>
       </c>
       <c r="I149" s="8" t="s">
         <v>56</v>
@@ -9883,16 +9958,16 @@
         <v>77</v>
       </c>
       <c r="K149" s="11" t="s">
-        <v>747</v>
+        <v>737</v>
       </c>
       <c r="L149" t="n" s="0">
         <v>148.0</v>
       </c>
       <c r="M149" t="s" s="0">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="N149" t="n" s="0">
-        <v>5292.0</v>
+        <v>5181.0</v>
       </c>
     </row>
     <row r="150" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
@@ -9900,13 +9975,13 @@
         <v>45498.489748993059</v>
       </c>
       <c r="B150" s="8" t="s">
-        <v>748</v>
+        <v>738</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>749</v>
+        <v>739</v>
       </c>
       <c r="D150" s="9" t="s">
-        <v>750</v>
+        <v>740</v>
       </c>
       <c r="E150" s="8" t="s">
         <v>14</v>
@@ -9927,7 +10002,7 @@
         <v>149.0</v>
       </c>
       <c r="M150" t="s" s="0">
-        <v>937</v>
+        <v>920</v>
       </c>
       <c r="N150" t="n" s="0">
         <v>0.0</v>
@@ -9938,19 +10013,19 @@
         <v>45498.494826076392</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>751</v>
+        <v>741</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>752</v>
+        <v>742</v>
       </c>
       <c r="D151" s="9" t="s">
-        <v>753</v>
+        <v>743</v>
       </c>
       <c r="E151" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F151" s="8" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="G151" s="8" t="s">
         <v>16</v>
@@ -9959,22 +10034,22 @@
         <v>55</v>
       </c>
       <c r="I151" s="8" t="s">
-        <v>754</v>
+        <v>744</v>
       </c>
       <c r="J151" s="8" t="s">
-        <v>755</v>
+        <v>745</v>
       </c>
       <c r="K151" s="11" t="s">
-        <v>756</v>
+        <v>746</v>
       </c>
       <c r="L151" t="n" s="0">
         <v>150.0</v>
       </c>
       <c r="M151" t="s" s="0">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="N151" t="n" s="0">
-        <v>4284.0</v>
+        <v>4330.0</v>
       </c>
     </row>
     <row r="152" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
@@ -9982,31 +10057,31 @@
         <v>45498.516414999998</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>757</v>
+        <v>747</v>
       </c>
       <c r="C152" s="8" t="s">
-        <v>758</v>
+        <v>748</v>
       </c>
       <c r="D152" s="5" t="s">
-        <v>960</v>
+        <v>938</v>
       </c>
       <c r="E152" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F152" s="8" t="s">
-        <v>759</v>
+        <v>749</v>
       </c>
       <c r="G152" s="8" t="s">
         <v>45</v>
       </c>
       <c r="H152" s="8" t="s">
-        <v>760</v>
+        <v>750</v>
       </c>
       <c r="I152" s="8" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="J152" s="8" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="K152" s="6">
         <v>5355292397</v>
@@ -10015,10 +10090,10 @@
         <v>151.0</v>
       </c>
       <c r="M152" t="s" s="0">
-        <v>938</v>
+        <v>921</v>
       </c>
       <c r="N152" t="n" s="0">
-        <v>5208.0</v>
+        <v>5322.0</v>
       </c>
     </row>
     <row r="153" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
@@ -10026,29 +10101,29 @@
         <v>45498.529307546298</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>761</v>
+        <v>751</v>
       </c>
       <c r="C153" s="8" t="s">
-        <v>762</v>
+        <v>752</v>
       </c>
       <c r="D153" s="5" t="s">
-        <v>954</v>
+        <v>932</v>
       </c>
       <c r="E153" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F153" s="8" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G153" s="8" t="s">
         <v>16</v>
       </c>
       <c r="H153" s="8" t="s">
-        <v>763</v>
+        <v>753</v>
       </c>
       <c r="I153" s="10"/>
       <c r="J153" s="8" t="s">
-        <v>764</v>
+        <v>754</v>
       </c>
       <c r="K153" s="6">
         <v>5372328612</v>
@@ -10057,7 +10132,7 @@
         <v>152.0</v>
       </c>
       <c r="M153" t="s" s="0">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="N153" t="n" s="0">
         <v>4632.0</v>
@@ -10068,13 +10143,13 @@
         <v>45498.54083471065</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>765</v>
+        <v>755</v>
       </c>
       <c r="C154" s="8" t="s">
-        <v>766</v>
+        <v>756</v>
       </c>
       <c r="D154" s="5" t="s">
-        <v>952</v>
+        <v>930</v>
       </c>
       <c r="E154" s="8" t="s">
         <v>14</v>
@@ -10089,10 +10164,10 @@
         <v>55</v>
       </c>
       <c r="I154" s="8" t="s">
-        <v>767</v>
+        <v>757</v>
       </c>
       <c r="J154" s="8" t="s">
-        <v>768</v>
+        <v>758</v>
       </c>
       <c r="K154" s="6">
         <v>5356673137</v>
@@ -10101,10 +10176,10 @@
         <v>153.0</v>
       </c>
       <c r="M154" t="s" s="0">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="N154" t="n" s="0">
-        <v>5653.0</v>
+        <v>5677.0</v>
       </c>
     </row>
     <row r="155" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
@@ -10112,58 +10187,58 @@
         <v>45498.542013622689</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>769</v>
+        <v>759</v>
       </c>
       <c r="C155" s="8" t="s">
-        <v>770</v>
+        <v>760</v>
       </c>
       <c r="D155" s="9" t="s">
-        <v>981</v>
+        <v>958</v>
       </c>
       <c r="E155" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F155" s="8" t="s">
-        <v>771</v>
+        <v>761</v>
       </c>
       <c r="G155" s="8" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="H155" s="8" t="s">
-        <v>772</v>
+        <v>762</v>
       </c>
       <c r="I155" s="10"/>
       <c r="J155" s="10"/>
       <c r="K155" s="11" t="s">
-        <v>773</v>
+        <v>763</v>
       </c>
       <c r="L155" t="n" s="0">
         <v>154.0</v>
       </c>
       <c r="M155" t="s" s="0">
-        <v>934</v>
+        <v>917</v>
       </c>
       <c r="N155" t="n" s="0">
         <v>0.0</v>
       </c>
     </row>
     <row r="156" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A156" s="7">
-        <v>45498.547352395835</v>
-      </c>
-      <c r="B156" s="8" t="s">
-        <v>774</v>
-      </c>
-      <c r="C156" s="8" t="s">
-        <v>775</v>
-      </c>
-      <c r="D156" s="9" t="s">
-        <v>776</v>
-      </c>
-      <c r="E156" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F156" s="8" t="s">
+      <c r="A156" t="s" s="0">
+        <v>1031</v>
+      </c>
+      <c r="B156" t="s" s="0">
+        <v>1032</v>
+      </c>
+      <c r="C156" t="s" s="0">
+        <v>764</v>
+      </c>
+      <c r="D156" s="4" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E156" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F156" t="s" s="0">
         <v>137</v>
       </c>
       <c r="G156" s="8" t="s">
@@ -10173,19 +10248,19 @@
         <v>55</v>
       </c>
       <c r="I156" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="J156" s="8" t="s">
-        <v>777</v>
-      </c>
-      <c r="K156" s="11" t="s">
-        <v>778</v>
+        <v>765</v>
+      </c>
+      <c r="K156" s="2" t="s">
+        <v>766</v>
       </c>
       <c r="L156" t="n" s="0">
         <v>155.0</v>
       </c>
       <c r="M156" t="s" s="0">
-        <v>354</v>
+        <v>921</v>
       </c>
       <c r="N156" t="n" s="0">
         <v>0.0</v>
@@ -10196,13 +10271,13 @@
         <v>45498.548877314817</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>779</v>
+        <v>767</v>
       </c>
       <c r="C157" s="8" t="s">
-        <v>780</v>
+        <v>768</v>
       </c>
       <c r="D157" s="16" t="s">
-        <v>987</v>
+        <v>963</v>
       </c>
       <c r="E157" s="8" t="s">
         <v>14</v>
@@ -10217,10 +10292,10 @@
         <v>55</v>
       </c>
       <c r="I157" s="8" t="s">
-        <v>781</v>
+        <v>769</v>
       </c>
       <c r="J157" s="8" t="s">
-        <v>782</v>
+        <v>770</v>
       </c>
       <c r="K157" s="6">
         <v>5386031221</v>
@@ -10229,10 +10304,10 @@
         <v>156.0</v>
       </c>
       <c r="M157" t="s" s="0">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="N157" t="n" s="0">
-        <v>5816.0</v>
+        <v>5830.0</v>
       </c>
     </row>
     <row r="158" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
@@ -10240,31 +10315,31 @@
         <v>45498.549575694444</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>783</v>
+        <v>771</v>
       </c>
       <c r="C158" s="8" t="s">
-        <v>784</v>
+        <v>772</v>
       </c>
       <c r="D158" s="9" t="s">
-        <v>785</v>
+        <v>773</v>
       </c>
       <c r="E158" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F158" s="8" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G158" s="8" t="s">
         <v>16</v>
       </c>
       <c r="H158" s="8" t="s">
-        <v>786</v>
+        <v>774</v>
       </c>
       <c r="I158" s="8" t="s">
-        <v>787</v>
+        <v>775</v>
       </c>
       <c r="J158" s="8" t="s">
-        <v>788</v>
+        <v>776</v>
       </c>
       <c r="K158" s="6">
         <v>5065073841</v>
@@ -10282,19 +10357,19 @@
         <v>45498.549715844907</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>789</v>
+        <v>777</v>
       </c>
       <c r="C159" s="8" t="s">
-        <v>790</v>
+        <v>778</v>
       </c>
       <c r="D159" s="5" t="s">
-        <v>965</v>
+        <v>943</v>
       </c>
       <c r="E159" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F159" s="8" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G159" s="8" t="s">
         <v>28</v>
@@ -10303,13 +10378,13 @@
       <c r="I159" s="10"/>
       <c r="J159" s="10"/>
       <c r="K159" s="11" t="s">
-        <v>791</v>
+        <v>779</v>
       </c>
       <c r="L159" t="n" s="0">
         <v>158.0</v>
       </c>
       <c r="M159" t="s" s="0">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="N159" t="n" s="0">
         <v>4360.0</v>
@@ -10320,19 +10395,19 @@
         <v>45498.585531979166</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>792</v>
+        <v>780</v>
       </c>
       <c r="C160" s="8" t="s">
-        <v>793</v>
+        <v>781</v>
       </c>
       <c r="D160" s="5" t="s">
-        <v>982</v>
+        <v>959</v>
       </c>
       <c r="E160" s="8" t="s">
         <v>22</v>
       </c>
       <c r="F160" s="8" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="G160" s="8" t="s">
         <v>16</v>
@@ -10341,16 +10416,16 @@
       <c r="I160" s="10"/>
       <c r="J160" s="10"/>
       <c r="K160" s="11" t="s">
-        <v>794</v>
+        <v>782</v>
       </c>
       <c r="L160" t="n" s="0">
         <v>159.0</v>
       </c>
       <c r="M160" t="s" s="0">
-        <v>935</v>
+        <v>918</v>
       </c>
       <c r="N160" t="n" s="0">
-        <v>4665.0</v>
+        <v>4582.0</v>
       </c>
     </row>
     <row r="161" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
@@ -10358,13 +10433,13 @@
         <v>45498.587861770837</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>795</v>
+        <v>783</v>
       </c>
       <c r="C161" s="8" t="s">
-        <v>796</v>
+        <v>784</v>
       </c>
       <c r="D161" s="9" t="s">
-        <v>797</v>
+        <v>785</v>
       </c>
       <c r="E161" s="8" t="s">
         <v>14</v>
@@ -10376,7 +10451,7 @@
         <v>16</v>
       </c>
       <c r="H161" s="8" t="s">
-        <v>718</v>
+        <v>708</v>
       </c>
       <c r="I161" s="10"/>
       <c r="J161" s="10"/>
@@ -10387,7 +10462,7 @@
         <v>160.0</v>
       </c>
       <c r="M161" t="s" s="0">
-        <v>934</v>
+        <v>917</v>
       </c>
       <c r="N161" t="n" s="0">
         <v>4972.0</v>
@@ -10398,19 +10473,19 @@
         <v>45498.595322546294</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>798</v>
+        <v>786</v>
       </c>
       <c r="C162" s="8" t="s">
-        <v>793</v>
+        <v>781</v>
       </c>
       <c r="D162" s="9" t="s">
-        <v>799</v>
+        <v>787</v>
       </c>
       <c r="E162" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F162" s="8" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="G162" s="8" t="s">
         <v>16</v>
@@ -10419,16 +10494,16 @@
       <c r="I162" s="10"/>
       <c r="J162" s="10"/>
       <c r="K162" s="11" t="s">
-        <v>800</v>
+        <v>788</v>
       </c>
       <c r="L162" t="n" s="0">
         <v>161.0</v>
       </c>
       <c r="M162" t="s" s="0">
-        <v>934</v>
+        <v>917</v>
       </c>
       <c r="N162" t="n" s="0">
-        <v>5020.0</v>
+        <v>4955.0</v>
       </c>
     </row>
     <row r="163" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
@@ -10436,31 +10511,31 @@
         <v>45498.597895902778</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>801</v>
+        <v>789</v>
       </c>
       <c r="C163" s="8" t="s">
-        <v>802</v>
+        <v>790</v>
       </c>
       <c r="D163" s="9" t="s">
-        <v>803</v>
+        <v>791</v>
       </c>
       <c r="E163" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F163" s="8" t="s">
-        <v>717</v>
+        <v>707</v>
       </c>
       <c r="G163" s="8" t="s">
         <v>16</v>
       </c>
       <c r="H163" s="8" t="s">
-        <v>804</v>
+        <v>792</v>
       </c>
       <c r="I163" s="8" t="s">
-        <v>805</v>
+        <v>793</v>
       </c>
       <c r="J163" s="8" t="s">
-        <v>806</v>
+        <v>794</v>
       </c>
       <c r="K163" s="6">
         <v>5377646578</v>
@@ -10469,30 +10544,30 @@
         <v>162.0</v>
       </c>
       <c r="M163" t="s" s="0">
-        <v>934</v>
+        <v>917</v>
       </c>
       <c r="N163" t="n" s="0">
         <v>4218.0</v>
       </c>
     </row>
     <row r="164" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A164" s="7">
-        <v>45498.606374317125</v>
-      </c>
-      <c r="B164" s="8" t="s">
-        <v>807</v>
-      </c>
-      <c r="C164" s="8" t="s">
-        <v>524</v>
-      </c>
-      <c r="D164" s="5" t="s">
-        <v>983</v>
-      </c>
-      <c r="E164" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F164" s="8" t="s">
-        <v>322</v>
+      <c r="A164" t="s" s="0">
+        <v>1034</v>
+      </c>
+      <c r="B164" t="s" s="0">
+        <v>1035</v>
+      </c>
+      <c r="C164" t="s" s="0">
+        <v>518</v>
+      </c>
+      <c r="D164" s="4" t="s">
+        <v>1036</v>
+      </c>
+      <c r="E164" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F164" t="s" s="0">
+        <v>320</v>
       </c>
       <c r="G164" s="8" t="s">
         <v>16</v>
@@ -10500,17 +10575,17 @@
       <c r="H164" s="10"/>
       <c r="I164" s="10"/>
       <c r="J164" s="10"/>
-      <c r="K164" s="6" t="s">
-        <v>808</v>
+      <c r="K164" s="2" t="s">
+        <v>795</v>
       </c>
       <c r="L164" t="n" s="0">
         <v>163.0</v>
       </c>
       <c r="M164" t="s" s="0">
-        <v>936</v>
+        <v>919</v>
       </c>
       <c r="N164" t="n" s="0">
-        <v>0.0</v>
+        <v>5300.0</v>
       </c>
     </row>
     <row r="165" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
@@ -10518,13 +10593,13 @@
         <v>45498.623294513891</v>
       </c>
       <c r="B165" s="8" t="s">
-        <v>809</v>
+        <v>796</v>
       </c>
       <c r="C165" s="8" t="s">
-        <v>810</v>
+        <v>797</v>
       </c>
       <c r="D165" s="9" t="s">
-        <v>984</v>
+        <v>960</v>
       </c>
       <c r="E165" s="8" t="s">
         <v>14</v>
@@ -10539,10 +10614,10 @@
         <v>55</v>
       </c>
       <c r="I165" s="8" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="J165" s="8" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K165" s="6">
         <v>5068540963</v>
@@ -10551,7 +10626,7 @@
         <v>164.0</v>
       </c>
       <c r="M165" t="s" s="0">
-        <v>937</v>
+        <v>920</v>
       </c>
       <c r="N165" t="n" s="0">
         <v>0.0</v>
@@ -10559,16 +10634,16 @@
     </row>
     <row r="166" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A166" t="s" s="0">
-        <v>1002</v>
+        <v>972</v>
       </c>
       <c r="B166" t="s" s="0">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="C166" t="s" s="0">
-        <v>812</v>
-      </c>
-      <c r="D166" t="s" s="4">
-        <v>1001</v>
+        <v>798</v>
+      </c>
+      <c r="D166" s="4" t="s">
+        <v>971</v>
       </c>
       <c r="E166" t="s" s="0">
         <v>14</v>
@@ -10580,25 +10655,25 @@
         <v>16</v>
       </c>
       <c r="H166" s="8" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="I166" s="8" t="s">
-        <v>813</v>
+        <v>799</v>
       </c>
       <c r="J166" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="K166" t="s" s="2">
-        <v>814</v>
+      <c r="K166" s="2" t="s">
+        <v>800</v>
       </c>
       <c r="L166" t="n" s="0">
         <v>165.0</v>
       </c>
       <c r="M166" t="s" s="0">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="N166" t="n" s="0">
-        <v>5082.0</v>
+        <v>4995.0</v>
       </c>
     </row>
     <row r="167" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
@@ -10606,13 +10681,13 @@
         <v>45498.679666979166</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>815</v>
+        <v>801</v>
       </c>
       <c r="C167" s="8" t="s">
-        <v>816</v>
+        <v>802</v>
       </c>
       <c r="D167" s="9" t="s">
-        <v>817</v>
+        <v>803</v>
       </c>
       <c r="E167" s="8" t="s">
         <v>14</v>
@@ -10624,13 +10699,13 @@
         <v>50</v>
       </c>
       <c r="H167" s="8" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="I167" s="8" t="s">
-        <v>818</v>
+        <v>804</v>
       </c>
       <c r="J167" s="8" t="s">
-        <v>819</v>
+        <v>805</v>
       </c>
       <c r="K167" s="6">
         <v>5392489329</v>
@@ -10639,10 +10714,10 @@
         <v>166.0</v>
       </c>
       <c r="M167" t="s" s="0">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="N167" t="n" s="0">
-        <v>4930.0</v>
+        <v>5008.0</v>
       </c>
     </row>
     <row r="168" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
@@ -10650,13 +10725,13 @@
         <v>45498.685618148149</v>
       </c>
       <c r="B168" s="8" t="s">
-        <v>820</v>
+        <v>806</v>
       </c>
       <c r="C168" s="8" t="s">
-        <v>821</v>
+        <v>807</v>
       </c>
       <c r="D168" s="5" t="s">
-        <v>985</v>
+        <v>961</v>
       </c>
       <c r="E168" s="8" t="s">
         <v>14</v>
@@ -10665,16 +10740,16 @@
         <v>155</v>
       </c>
       <c r="G168" s="8" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="H168" s="8" t="s">
-        <v>822</v>
+        <v>808</v>
       </c>
       <c r="I168" s="8" t="s">
-        <v>823</v>
+        <v>809</v>
       </c>
       <c r="J168" s="8" t="s">
-        <v>824</v>
+        <v>810</v>
       </c>
       <c r="K168" s="6">
         <v>5322549064</v>
@@ -10683,7 +10758,7 @@
         <v>167.0</v>
       </c>
       <c r="M168" t="s" s="0">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="N168" t="n" s="0">
         <v>0.0</v>
@@ -10694,13 +10769,13 @@
         <v>45498.69874482639</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>825</v>
+        <v>811</v>
       </c>
       <c r="C169" s="8" t="s">
-        <v>826</v>
+        <v>812</v>
       </c>
       <c r="D169" s="5" t="s">
-        <v>985</v>
+        <v>961</v>
       </c>
       <c r="E169" s="8" t="s">
         <v>14</v>
@@ -10712,7 +10787,7 @@
         <v>16</v>
       </c>
       <c r="H169" s="8" t="s">
-        <v>827</v>
+        <v>813</v>
       </c>
       <c r="I169" s="10"/>
       <c r="J169" s="10"/>
@@ -10723,10 +10798,10 @@
         <v>168.0</v>
       </c>
       <c r="M169" t="s" s="0">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="N169" t="n" s="0">
-        <v>5457.0</v>
+        <v>5276.0</v>
       </c>
     </row>
     <row r="170" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
@@ -10734,36 +10809,36 @@
         <v>45498.729802523143</v>
       </c>
       <c r="B170" s="8" t="s">
-        <v>828</v>
+        <v>814</v>
       </c>
       <c r="C170" s="8" t="s">
-        <v>829</v>
+        <v>815</v>
       </c>
       <c r="D170" s="5" t="s">
-        <v>957</v>
+        <v>935</v>
       </c>
       <c r="E170" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F170" s="8" t="s">
-        <v>830</v>
+        <v>816</v>
       </c>
       <c r="G170" s="8" t="s">
         <v>28</v>
       </c>
       <c r="H170" s="8" t="s">
-        <v>831</v>
+        <v>817</v>
       </c>
       <c r="I170" s="10"/>
       <c r="J170" s="10"/>
       <c r="K170" s="11" t="s">
-        <v>832</v>
+        <v>818</v>
       </c>
       <c r="L170" t="n" s="0">
         <v>169.0</v>
       </c>
       <c r="M170" t="s" s="0">
-        <v>934</v>
+        <v>917</v>
       </c>
       <c r="N170" t="n" s="0">
         <v>0.0</v>
@@ -10774,43 +10849,43 @@
         <v>45498.756126736116</v>
       </c>
       <c r="B171" s="8" t="s">
-        <v>833</v>
+        <v>819</v>
       </c>
       <c r="C171" s="8" t="s">
-        <v>834</v>
+        <v>820</v>
       </c>
       <c r="D171" s="9" t="s">
-        <v>835</v>
+        <v>821</v>
       </c>
       <c r="E171" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F171" s="8" t="s">
-        <v>836</v>
+        <v>822</v>
       </c>
       <c r="G171" s="8" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="H171" s="8" t="s">
-        <v>837</v>
+        <v>823</v>
       </c>
       <c r="I171" s="8" t="s">
-        <v>838</v>
+        <v>824</v>
       </c>
       <c r="J171" s="8" t="s">
-        <v>839</v>
+        <v>825</v>
       </c>
       <c r="K171" s="11" t="s">
-        <v>840</v>
+        <v>826</v>
       </c>
       <c r="L171" t="n" s="0">
         <v>170.0</v>
       </c>
       <c r="M171" t="s" s="0">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="N171" t="n" s="0">
-        <v>4824.0</v>
+        <v>4800.0</v>
       </c>
     </row>
     <row r="172" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
@@ -10818,13 +10893,13 @@
         <v>45498.793303784725</v>
       </c>
       <c r="B172" s="8" t="s">
-        <v>841</v>
+        <v>827</v>
       </c>
       <c r="C172" s="8" t="s">
-        <v>842</v>
+        <v>828</v>
       </c>
       <c r="D172" s="9" t="s">
-        <v>843</v>
+        <v>829</v>
       </c>
       <c r="E172" s="8" t="s">
         <v>14</v>
@@ -10839,10 +10914,10 @@
         <v>55</v>
       </c>
       <c r="I172" s="8" t="s">
-        <v>844</v>
+        <v>830</v>
       </c>
       <c r="J172" s="8" t="s">
-        <v>845</v>
+        <v>831</v>
       </c>
       <c r="K172" s="17">
         <v>5322727795</v>
@@ -10851,7 +10926,7 @@
         <v>171.0</v>
       </c>
       <c r="M172" t="s" s="0">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="N172" t="n" s="0">
         <v>0.0</v>
@@ -10862,13 +10937,13 @@
         <v>45498.793322048616</v>
       </c>
       <c r="B173" s="8" t="s">
-        <v>846</v>
+        <v>832</v>
       </c>
       <c r="C173" s="8" t="s">
-        <v>847</v>
+        <v>833</v>
       </c>
       <c r="D173" s="5" t="s">
-        <v>974</v>
+        <v>951</v>
       </c>
       <c r="E173" s="8" t="s">
         <v>14</v>
@@ -10880,25 +10955,25 @@
         <v>81</v>
       </c>
       <c r="H173" s="8" t="s">
-        <v>848</v>
+        <v>834</v>
       </c>
       <c r="I173" s="8" t="s">
-        <v>849</v>
+        <v>835</v>
       </c>
       <c r="J173" s="8" t="s">
-        <v>850</v>
+        <v>836</v>
       </c>
       <c r="K173" s="11" t="s">
-        <v>851</v>
+        <v>837</v>
       </c>
       <c r="L173" t="n" s="0">
         <v>172.0</v>
       </c>
       <c r="M173" t="s" s="0">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="N173" t="n" s="0">
-        <v>4656.0</v>
+        <v>4556.0</v>
       </c>
     </row>
     <row r="174" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
@@ -10906,13 +10981,13 @@
         <v>45498.8286209375</v>
       </c>
       <c r="B174" s="8" t="s">
-        <v>852</v>
+        <v>838</v>
       </c>
       <c r="C174" s="8" t="s">
-        <v>853</v>
+        <v>839</v>
       </c>
       <c r="D174" s="9" t="s">
-        <v>854</v>
+        <v>840</v>
       </c>
       <c r="E174" s="8" t="s">
         <v>14</v>
@@ -10924,22 +10999,22 @@
         <v>45</v>
       </c>
       <c r="H174" s="8" t="s">
-        <v>855</v>
+        <v>841</v>
       </c>
       <c r="I174" s="8" t="s">
-        <v>856</v>
+        <v>842</v>
       </c>
       <c r="J174" s="8" t="s">
-        <v>857</v>
+        <v>843</v>
       </c>
       <c r="K174" s="11" t="s">
-        <v>858</v>
+        <v>844</v>
       </c>
       <c r="L174" t="n" s="0">
         <v>173.0</v>
       </c>
       <c r="M174" t="s" s="0">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="N174" t="n" s="0">
         <v>5124.0</v>
@@ -10950,39 +11025,39 @@
         <v>45498.836022835647</v>
       </c>
       <c r="B175" s="8" t="s">
-        <v>859</v>
+        <v>845</v>
       </c>
       <c r="C175" s="8" t="s">
-        <v>860</v>
+        <v>846</v>
       </c>
       <c r="D175" s="5" t="s">
-        <v>962</v>
+        <v>940</v>
       </c>
       <c r="E175" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F175" s="8" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="G175" s="8" t="s">
         <v>16</v>
       </c>
       <c r="H175" s="8" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="I175" s="10"/>
       <c r="J175" s="10"/>
       <c r="K175" s="6" t="s">
-        <v>861</v>
+        <v>847</v>
       </c>
       <c r="L175" t="n" s="0">
         <v>174.0</v>
       </c>
       <c r="M175" t="s" s="0">
-        <v>934</v>
+        <v>917</v>
       </c>
       <c r="N175" t="n" s="0">
-        <v>5536.0</v>
+        <v>5610.0</v>
       </c>
     </row>
     <row r="176" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
@@ -10990,31 +11065,31 @@
         <v>45498.845980497688</v>
       </c>
       <c r="B176" s="8" t="s">
-        <v>862</v>
+        <v>848</v>
       </c>
       <c r="C176" s="8" t="s">
-        <v>863</v>
+        <v>849</v>
       </c>
       <c r="D176" s="5" t="s">
-        <v>956</v>
+        <v>934</v>
       </c>
       <c r="E176" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F176" s="8" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G176" s="8" t="s">
         <v>28</v>
       </c>
       <c r="H176" s="8" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="I176" s="8" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="J176" s="8" t="s">
-        <v>864</v>
+        <v>850</v>
       </c>
       <c r="K176" s="6">
         <v>5375059380</v>
@@ -11023,10 +11098,10 @@
         <v>175.0</v>
       </c>
       <c r="M176" t="s" s="0">
-        <v>937</v>
+        <v>920</v>
       </c>
       <c r="N176" t="n" s="0">
-        <v>5467.0</v>
+        <v>5555.0</v>
       </c>
     </row>
     <row r="177" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
@@ -11034,19 +11109,19 @@
         <v>45498.869469583333</v>
       </c>
       <c r="B177" s="8" t="s">
-        <v>865</v>
+        <v>851</v>
       </c>
       <c r="C177" s="8" t="s">
-        <v>866</v>
+        <v>852</v>
       </c>
       <c r="D177" s="9" t="s">
-        <v>867</v>
+        <v>853</v>
       </c>
       <c r="E177" s="8" t="s">
         <v>22</v>
       </c>
       <c r="F177" s="8" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G177" s="8" t="s">
         <v>16</v>
@@ -11063,7 +11138,7 @@
         <v>176.0</v>
       </c>
       <c r="M177" t="s" s="0">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="N177" t="n" s="0">
         <v>4763.0</v>
@@ -11074,19 +11149,19 @@
         <v>45498.932879293978</v>
       </c>
       <c r="B178" s="8" t="s">
-        <v>868</v>
+        <v>854</v>
       </c>
       <c r="C178" s="8" t="s">
-        <v>869</v>
+        <v>855</v>
       </c>
       <c r="D178" s="9" t="s">
-        <v>870</v>
+        <v>856</v>
       </c>
       <c r="E178" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F178" s="8" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="G178" s="8" t="s">
         <v>28</v>
@@ -11101,10 +11176,10 @@
         <v>177.0</v>
       </c>
       <c r="M178" t="s" s="0">
-        <v>938</v>
+        <v>921</v>
       </c>
       <c r="N178" t="n" s="0">
-        <v>5105.0</v>
+        <v>5120.0</v>
       </c>
     </row>
     <row r="179" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
@@ -11112,43 +11187,43 @@
         <v>45498.936386458328</v>
       </c>
       <c r="B179" s="8" t="s">
-        <v>871</v>
+        <v>857</v>
       </c>
       <c r="C179" s="8" t="s">
-        <v>872</v>
+        <v>858</v>
       </c>
       <c r="D179" s="9" t="s">
-        <v>873</v>
+        <v>859</v>
       </c>
       <c r="E179" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F179" s="8" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="G179" s="8" t="s">
         <v>28</v>
       </c>
       <c r="H179" s="8" t="s">
-        <v>874</v>
+        <v>860</v>
       </c>
       <c r="I179" s="8" t="s">
-        <v>875</v>
+        <v>861</v>
       </c>
       <c r="J179" s="8" t="s">
-        <v>876</v>
+        <v>862</v>
       </c>
       <c r="K179" s="11" t="s">
-        <v>877</v>
+        <v>863</v>
       </c>
       <c r="L179" t="n" s="0">
         <v>178.0</v>
       </c>
       <c r="M179" t="s" s="0">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="N179" t="n" s="0">
-        <v>5855.0</v>
+        <v>5748.0</v>
       </c>
     </row>
     <row r="180" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
@@ -11156,13 +11231,13 @@
         <v>45498.991533854161</v>
       </c>
       <c r="B180" s="8" t="s">
-        <v>878</v>
+        <v>864</v>
       </c>
       <c r="C180" s="8" t="s">
         <v>130</v>
       </c>
       <c r="D180" s="9" t="s">
-        <v>879</v>
+        <v>865</v>
       </c>
       <c r="E180" s="8" t="s">
         <v>14</v>
@@ -11177,19 +11252,19 @@
         <v>131</v>
       </c>
       <c r="I180" s="8" t="s">
-        <v>880</v>
+        <v>866</v>
       </c>
       <c r="J180" s="8" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="K180" s="11" t="s">
-        <v>882</v>
+        <v>868</v>
       </c>
       <c r="L180" t="n" s="0">
         <v>179.0</v>
       </c>
       <c r="M180" t="s" s="0">
-        <v>938</v>
+        <v>921</v>
       </c>
       <c r="N180" t="n" s="0">
         <v>0.0</v>
@@ -11200,34 +11275,34 @@
         <v>45499.003428506941</v>
       </c>
       <c r="B181" s="8" t="s">
-        <v>883</v>
+        <v>869</v>
       </c>
       <c r="C181" s="8" t="s">
-        <v>884</v>
+        <v>870</v>
       </c>
       <c r="D181" s="9" t="s">
-        <v>885</v>
+        <v>871</v>
       </c>
       <c r="E181" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F181" s="8" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G181" s="8" t="s">
         <v>16</v>
       </c>
       <c r="H181" s="8" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="I181" s="8" t="s">
-        <v>886</v>
+        <v>872</v>
       </c>
       <c r="J181" s="8" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="K181" s="11" t="s">
-        <v>887</v>
+        <v>873</v>
       </c>
       <c r="L181" t="n" s="0">
         <v>180.0</v>
@@ -11242,13 +11317,13 @@
         <v>45499.071467037036</v>
       </c>
       <c r="B182" s="8" t="s">
-        <v>888</v>
+        <v>874</v>
       </c>
       <c r="C182" s="8" t="s">
-        <v>889</v>
+        <v>875</v>
       </c>
       <c r="D182" s="5" t="s">
-        <v>978</v>
+        <v>955</v>
       </c>
       <c r="E182" s="8" t="s">
         <v>14</v>
@@ -11260,13 +11335,13 @@
         <v>45</v>
       </c>
       <c r="H182" s="8" t="s">
-        <v>890</v>
+        <v>876</v>
       </c>
       <c r="I182" s="8" t="s">
-        <v>891</v>
+        <v>877</v>
       </c>
       <c r="J182" s="8" t="s">
-        <v>892</v>
+        <v>878</v>
       </c>
       <c r="K182" s="6">
         <v>5373840530</v>
@@ -11275,10 +11350,10 @@
         <v>181.0</v>
       </c>
       <c r="M182" t="s" s="0">
-        <v>934</v>
+        <v>917</v>
       </c>
       <c r="N182" t="n" s="0">
-        <v>5350.0</v>
+        <v>5351.0</v>
       </c>
     </row>
     <row r="183" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11286,19 +11361,19 @@
         <v>45499.265989976848</v>
       </c>
       <c r="B183" s="8" t="s">
-        <v>893</v>
+        <v>879</v>
       </c>
       <c r="C183" s="8" t="s">
-        <v>894</v>
+        <v>880</v>
       </c>
       <c r="D183" s="9" t="s">
-        <v>895</v>
+        <v>881</v>
       </c>
       <c r="E183" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F183" s="8" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G183" s="8" t="s">
         <v>16</v>
@@ -11310,16 +11385,16 @@
         <v>93</v>
       </c>
       <c r="J183" s="8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K183" s="6" t="s">
-        <v>896</v>
+        <v>882</v>
       </c>
       <c r="L183" t="n" s="0">
         <v>182.0</v>
       </c>
       <c r="M183" t="s" s="0">
-        <v>936</v>
+        <v>919</v>
       </c>
       <c r="N183" t="n" s="0">
         <v>0.0</v>
@@ -11330,13 +11405,13 @@
         <v>45499.370531712964</v>
       </c>
       <c r="B184" s="8" t="s">
-        <v>897</v>
+        <v>883</v>
       </c>
       <c r="C184" s="8" t="s">
-        <v>898</v>
+        <v>884</v>
       </c>
       <c r="D184" s="9" t="s">
-        <v>899</v>
+        <v>885</v>
       </c>
       <c r="E184" s="8" t="s">
         <v>22</v>
@@ -11349,13 +11424,13 @@
       <c r="I184" s="10"/>
       <c r="J184" s="10"/>
       <c r="K184" s="6" t="s">
-        <v>900</v>
+        <v>886</v>
       </c>
       <c r="L184" t="n" s="0">
         <v>183.0</v>
       </c>
       <c r="M184" t="s" s="0">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="N184" t="n" s="0">
         <v>0.0</v>
@@ -11366,41 +11441,41 @@
         <v>45499.471198101848</v>
       </c>
       <c r="B185" s="8" t="s">
-        <v>901</v>
+        <v>887</v>
       </c>
       <c r="C185" s="8" t="s">
-        <v>902</v>
+        <v>888</v>
       </c>
       <c r="D185" s="9" t="s">
-        <v>903</v>
+        <v>889</v>
       </c>
       <c r="E185" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F185" s="8" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="G185" s="8" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="H185" s="8" t="s">
-        <v>904</v>
+        <v>890</v>
       </c>
       <c r="I185" s="8" t="s">
-        <v>905</v>
+        <v>891</v>
       </c>
       <c r="J185" s="10"/>
       <c r="K185" s="11" t="s">
-        <v>906</v>
+        <v>892</v>
       </c>
       <c r="L185" t="n" s="0">
         <v>184.0</v>
       </c>
       <c r="M185" t="s" s="0">
-        <v>938</v>
+        <v>921</v>
       </c>
       <c r="N185" t="n" s="0">
-        <v>5244.0</v>
+        <v>5255.0</v>
       </c>
     </row>
     <row r="186" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
@@ -11408,13 +11483,13 @@
         <v>45499.582825590274</v>
       </c>
       <c r="B186" s="8" t="s">
-        <v>907</v>
+        <v>893</v>
       </c>
       <c r="C186" s="8" t="s">
-        <v>908</v>
+        <v>894</v>
       </c>
       <c r="D186" s="5" t="s">
-        <v>986</v>
+        <v>962</v>
       </c>
       <c r="E186" s="8" t="s">
         <v>14</v>
@@ -11429,22 +11504,22 @@
         <v>55</v>
       </c>
       <c r="I186" s="8" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="J186" s="8" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="K186" s="11" t="s">
-        <v>909</v>
+        <v>895</v>
       </c>
       <c r="L186" t="n" s="0">
         <v>185.0</v>
       </c>
       <c r="M186" t="s" s="0">
-        <v>934</v>
+        <v>917</v>
       </c>
       <c r="N186" t="n" s="0">
-        <v>4319.0</v>
+        <v>4321.0</v>
       </c>
     </row>
     <row r="187" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
@@ -11452,19 +11527,19 @@
         <v>45499.586257581017</v>
       </c>
       <c r="B187" s="8" t="s">
-        <v>910</v>
+        <v>896</v>
       </c>
       <c r="C187" s="8" t="s">
-        <v>911</v>
+        <v>897</v>
       </c>
       <c r="D187" s="9" t="s">
-        <v>912</v>
+        <v>898</v>
       </c>
       <c r="E187" s="8" t="s">
         <v>22</v>
       </c>
       <c r="F187" s="8" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G187" s="8" t="s">
         <v>28</v>
@@ -11473,22 +11548,22 @@
         <v>106</v>
       </c>
       <c r="I187" s="8" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="J187" s="8" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="K187" s="11" t="s">
-        <v>913</v>
+        <v>899</v>
       </c>
       <c r="L187" t="n" s="0">
         <v>186.0</v>
       </c>
       <c r="M187" t="s" s="0">
-        <v>935</v>
+        <v>918</v>
       </c>
       <c r="N187" t="n" s="0">
-        <v>5451.0</v>
+        <v>5501.0</v>
       </c>
     </row>
     <row r="188" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
@@ -11496,19 +11571,19 @@
         <v>45499.587488715275</v>
       </c>
       <c r="B188" s="8" t="s">
-        <v>914</v>
+        <v>900</v>
       </c>
       <c r="C188" s="8" t="s">
-        <v>915</v>
+        <v>901</v>
       </c>
       <c r="D188" s="9" t="s">
-        <v>916</v>
+        <v>902</v>
       </c>
       <c r="E188" s="8" t="s">
         <v>22</v>
       </c>
       <c r="F188" s="8" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G188" s="8" t="s">
         <v>16</v>
@@ -11517,13 +11592,13 @@
       <c r="I188" s="10"/>
       <c r="J188" s="10"/>
       <c r="K188" s="11" t="s">
-        <v>917</v>
+        <v>903</v>
       </c>
       <c r="L188" t="n" s="0">
         <v>187.0</v>
       </c>
       <c r="M188" t="s" s="0">
-        <v>935</v>
+        <v>918</v>
       </c>
       <c r="N188" t="n" s="0">
         <v>0.0</v>
@@ -11531,48 +11606,48 @@
     </row>
     <row r="189" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A189" t="s" s="0">
-        <v>928</v>
+        <v>911</v>
       </c>
       <c r="B189" t="s" s="0">
-        <v>929</v>
+        <v>912</v>
       </c>
       <c r="C189" t="s" s="0">
-        <v>918</v>
+        <v>904</v>
       </c>
       <c r="D189" s="4" t="s">
-        <v>930</v>
+        <v>913</v>
       </c>
       <c r="E189" t="s" s="0">
         <v>22</v>
       </c>
       <c r="F189" t="s" s="0">
-        <v>918</v>
+        <v>904</v>
       </c>
       <c r="K189" s="2" t="s">
-        <v>918</v>
+        <v>904</v>
       </c>
       <c r="L189" t="n" s="0">
         <v>188.0</v>
       </c>
       <c r="M189" t="s" s="0">
-        <v>935</v>
+        <v>918</v>
       </c>
       <c r="N189" t="n" s="0">
-        <v>5540.0</v>
+        <v>5593.0</v>
       </c>
     </row>
     <row r="190" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A190" t="s" s="0">
-        <v>920</v>
+        <v>993</v>
       </c>
       <c r="B190" t="s" s="0">
-        <v>921</v>
+        <v>994</v>
       </c>
       <c r="C190" t="s" s="0">
-        <v>918</v>
+        <v>904</v>
       </c>
       <c r="D190" s="4" t="s">
-        <v>922</v>
+        <v>995</v>
       </c>
       <c r="E190" t="s" s="0">
         <v>14</v>
@@ -11581,13 +11656,13 @@
         <v>142</v>
       </c>
       <c r="K190" s="2" t="s">
-        <v>918</v>
+        <v>904</v>
       </c>
       <c r="L190" t="n" s="0">
         <v>189.0</v>
       </c>
       <c r="M190" t="s" s="0">
-        <v>934</v>
+        <v>920</v>
       </c>
       <c r="N190" t="n" s="0">
         <v>0.0</v>
@@ -11595,61 +11670,61 @@
     </row>
     <row r="191" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A191" t="s" s="0">
-        <v>927</v>
+        <v>910</v>
       </c>
       <c r="B191" t="s" s="0">
-        <v>926</v>
+        <v>909</v>
       </c>
       <c r="C191" t="s" s="0">
-        <v>918</v>
+        <v>904</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>919</v>
+        <v>905</v>
       </c>
       <c r="E191" t="s" s="0">
         <v>14</v>
       </c>
       <c r="F191" t="s" s="0">
-        <v>918</v>
+        <v>904</v>
       </c>
       <c r="K191" s="2" t="s">
-        <v>918</v>
+        <v>904</v>
       </c>
       <c r="L191" t="n" s="0">
         <v>190.0</v>
       </c>
       <c r="M191" s="0"/>
       <c r="N191" t="n" s="0">
-        <v>5721.0</v>
+        <v>5713.0</v>
       </c>
     </row>
     <row r="192" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A192" t="s" s="0">
-        <v>923</v>
+        <v>906</v>
       </c>
       <c r="B192" t="s" s="0">
-        <v>924</v>
+        <v>907</v>
       </c>
       <c r="C192" t="s" s="0">
-        <v>918</v>
+        <v>904</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>925</v>
+        <v>908</v>
       </c>
       <c r="E192" t="s" s="0">
         <v>22</v>
       </c>
       <c r="F192" t="s" s="0">
-        <v>918</v>
+        <v>904</v>
       </c>
       <c r="K192" s="2" t="s">
-        <v>918</v>
+        <v>904</v>
       </c>
       <c r="L192" t="n" s="0">
         <v>191.0</v>
       </c>
       <c r="M192" t="s" s="0">
-        <v>935</v>
+        <v>918</v>
       </c>
       <c r="N192" t="n" s="0">
         <v>0.0</v>
@@ -11657,63 +11732,63 @@
     </row>
     <row r="193" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A193" t="s" s="0">
-        <v>944</v>
+        <v>926</v>
       </c>
       <c r="B193" t="s" s="0">
-        <v>942</v>
+        <v>924</v>
       </c>
       <c r="C193" t="s" s="0">
-        <v>918</v>
+        <v>904</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>943</v>
+        <v>925</v>
       </c>
       <c r="E193" t="s" s="0">
         <v>22</v>
       </c>
       <c r="F193" t="s" s="0">
-        <v>918</v>
+        <v>904</v>
       </c>
       <c r="K193" s="2" t="s">
-        <v>918</v>
+        <v>904</v>
       </c>
       <c r="L193" t="n" s="0">
         <v>192.0</v>
       </c>
       <c r="M193" t="s" s="0">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="N193" t="n" s="0">
-        <v>4680.0</v>
+        <v>4718.0</v>
       </c>
     </row>
     <row r="194" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A194" t="s" s="0">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="B194" t="s" s="0">
-        <v>1008</v>
+        <v>998</v>
       </c>
       <c r="C194" t="s" s="0">
-        <v>918</v>
-      </c>
-      <c r="D194" t="s" s="4">
-        <v>949</v>
+        <v>904</v>
+      </c>
+      <c r="D194" s="4" t="s">
+        <v>1002</v>
       </c>
       <c r="E194" t="s" s="0">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F194" t="s" s="0">
-        <v>918</v>
-      </c>
-      <c r="K194" t="s" s="2">
-        <v>918</v>
+        <v>904</v>
+      </c>
+      <c r="K194" s="2" t="s">
+        <v>904</v>
       </c>
       <c r="L194" t="n" s="0">
         <v>193.0</v>
       </c>
       <c r="M194" t="s" s="0">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="N194" t="n" s="0">
         <v>0.0</v>
@@ -11721,221 +11796,619 @@
     </row>
     <row r="195" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A195" t="s" s="0">
-        <v>1014</v>
+        <v>1009</v>
       </c>
       <c r="B195" t="s" s="0">
-        <v>1015</v>
+        <v>998</v>
       </c>
       <c r="C195" t="s" s="0">
-        <v>918</v>
-      </c>
-      <c r="D195" t="s" s="4">
-        <v>949</v>
+        <v>904</v>
+      </c>
+      <c r="D195" s="4" t="s">
+        <v>1002</v>
       </c>
       <c r="E195" t="s" s="0">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F195" t="s" s="0">
-        <v>918</v>
-      </c>
-      <c r="K195" t="s" s="2">
-        <v>918</v>
+        <v>761</v>
+      </c>
+      <c r="K195" s="2" t="s">
+        <v>904</v>
       </c>
       <c r="L195" t="n" s="0">
         <v>194.0</v>
       </c>
       <c r="M195" t="s" s="0">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="N195" t="n" s="0">
-        <v>5116.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="196" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A196" t="s" s="0">
-        <v>996</v>
+        <v>1003</v>
       </c>
       <c r="B196" t="s" s="0">
+        <v>1000</v>
+      </c>
+      <c r="C196" t="s" s="0">
+        <v>904</v>
+      </c>
+      <c r="D196" s="4" t="s">
         <v>997</v>
       </c>
-      <c r="C196" t="s" s="0">
-        <v>918</v>
-      </c>
-      <c r="D196" s="4" t="s">
-        <v>998</v>
-      </c>
       <c r="E196" t="s" s="0">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F196" t="s" s="0">
-        <v>918</v>
+        <v>904</v>
       </c>
       <c r="K196" s="2" t="s">
-        <v>918</v>
+        <v>904</v>
       </c>
       <c r="L196" t="n" s="0">
         <v>195.0</v>
       </c>
       <c r="M196" t="s" s="0">
-        <v>938</v>
+        <v>352</v>
       </c>
       <c r="N196" t="n" s="0">
-        <v>5193.0</v>
-      </c>
-    </row>
-    <row r="197">
+        <v>4953.0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A197" t="s" s="0">
-        <v>1016</v>
+        <v>1004</v>
       </c>
       <c r="B197" t="s" s="0">
-        <v>1017</v>
+        <v>1005</v>
       </c>
       <c r="C197" t="s" s="0">
-        <v>1018</v>
-      </c>
-      <c r="D197" t="s" s="4">
-        <v>1019</v>
+        <v>904</v>
+      </c>
+      <c r="D197" s="4" t="s">
+        <v>997</v>
       </c>
       <c r="E197" t="s" s="0">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F197" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="K197" t="s" s="2">
-        <v>1020</v>
+        <v>904</v>
+      </c>
+      <c r="K197" s="2" t="s">
+        <v>904</v>
       </c>
       <c r="L197" t="n" s="0">
-        <v>1.0</v>
+        <v>196.0</v>
       </c>
       <c r="M197" t="s" s="0">
-        <v>934</v>
+        <v>920</v>
       </c>
       <c r="N197" t="n" s="0">
         <v>0.0</v>
       </c>
     </row>
-    <row r="198">
+    <row r="198" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A198" t="s" s="0">
+        <v>1006</v>
+      </c>
+      <c r="B198" t="s" s="0">
+        <v>1007</v>
+      </c>
+      <c r="C198" t="s" s="0">
+        <v>904</v>
+      </c>
+      <c r="D198" s="4" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E198" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F198" t="s" s="0">
+        <v>904</v>
+      </c>
+      <c r="K198" s="2" t="s">
+        <v>904</v>
+      </c>
+      <c r="L198" t="n" s="0">
+        <v>197.0</v>
+      </c>
+      <c r="M198" t="s" s="0">
+        <v>919</v>
+      </c>
+      <c r="N198" t="n" s="0">
+        <v>5103.0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A199" t="s" s="0">
+        <v>1010</v>
+      </c>
+      <c r="B199" t="s" s="0">
+        <v>996</v>
+      </c>
+      <c r="C199" t="s" s="0">
+        <v>904</v>
+      </c>
+      <c r="D199" s="4" t="s">
+        <v>997</v>
+      </c>
+      <c r="E199" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F199" t="s" s="0">
+        <v>904</v>
+      </c>
+      <c r="K199" s="2" t="s">
+        <v>904</v>
+      </c>
+      <c r="L199" t="n" s="0">
+        <v>198.0</v>
+      </c>
+      <c r="M199" t="s" s="0">
+        <v>920</v>
+      </c>
+      <c r="N199" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A200" t="s" s="0">
+        <v>1011</v>
+      </c>
+      <c r="B200" t="s" s="0">
+        <v>1012</v>
+      </c>
+      <c r="C200" t="s" s="0">
+        <v>904</v>
+      </c>
+      <c r="D200" s="4" t="s">
+        <v>997</v>
+      </c>
+      <c r="E200" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F200" t="s" s="0">
+        <v>904</v>
+      </c>
+      <c r="K200" s="2" t="s">
+        <v>904</v>
+      </c>
+      <c r="L200" t="n" s="0">
+        <v>199.0</v>
+      </c>
+      <c r="M200" t="s" s="0">
+        <v>917</v>
+      </c>
+      <c r="N200" t="n" s="0">
+        <v>4241.0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A201" t="s" s="0">
+        <v>1013</v>
+      </c>
+      <c r="B201" t="s" s="0">
+        <v>1014</v>
+      </c>
+      <c r="C201" t="s" s="0">
+        <v>904</v>
+      </c>
+      <c r="D201" s="4" t="s">
+        <v>997</v>
+      </c>
+      <c r="E201" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F201" t="s" s="0">
+        <v>904</v>
+      </c>
+      <c r="K201" s="2" t="s">
+        <v>904</v>
+      </c>
+      <c r="L201" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="M201" t="s" s="0">
+        <v>352</v>
+      </c>
+      <c r="N201" t="n" s="0">
+        <v>4927.0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A202" t="s" s="0">
+        <v>1015</v>
+      </c>
+      <c r="B202" t="s" s="0">
+        <v>1016</v>
+      </c>
+      <c r="C202" t="s" s="0">
+        <v>904</v>
+      </c>
+      <c r="D202" s="4" t="s">
+        <v>997</v>
+      </c>
+      <c r="E202" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F202" t="s" s="0">
+        <v>904</v>
+      </c>
+      <c r="K202" s="2" t="s">
+        <v>904</v>
+      </c>
+      <c r="L202" t="n" s="0">
+        <v>201.0</v>
+      </c>
+      <c r="M202" t="s" s="0">
+        <v>352</v>
+      </c>
+      <c r="N202" t="n" s="0">
+        <v>5022.0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A203" t="s" s="0">
+        <v>1017</v>
+      </c>
+      <c r="B203" t="s" s="0">
+        <v>1018</v>
+      </c>
+      <c r="C203" t="s" s="0">
+        <v>904</v>
+      </c>
+      <c r="D203" s="4" t="s">
+        <v>997</v>
+      </c>
+      <c r="E203" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F203" t="s" s="0">
+        <v>904</v>
+      </c>
+      <c r="K203" s="2" t="s">
+        <v>904</v>
+      </c>
+      <c r="L203" t="n" s="0">
+        <v>202.0</v>
+      </c>
+      <c r="M203" t="s" s="0">
+        <v>920</v>
+      </c>
+      <c r="N203" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A204" t="s" s="0">
+        <v>1019</v>
+      </c>
+      <c r="B204" t="s" s="0">
+        <v>1020</v>
+      </c>
+      <c r="C204" t="s" s="0">
+        <v>904</v>
+      </c>
+      <c r="D204" s="4" t="s">
+        <v>997</v>
+      </c>
+      <c r="E204" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F204" t="s" s="0">
+        <v>904</v>
+      </c>
+      <c r="K204" s="2" t="s">
+        <v>904</v>
+      </c>
+      <c r="L204" t="n" s="0">
+        <v>203.0</v>
+      </c>
+      <c r="M204" t="s" s="0">
+        <v>917</v>
+      </c>
+      <c r="N204" t="n" s="0">
+        <v>5154.0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A205" t="s" s="0">
         <v>1021</v>
       </c>
-      <c r="B198" t="s" s="0">
+      <c r="B205" t="s" s="0">
         <v>1022</v>
       </c>
-      <c r="C198" t="s" s="0">
+      <c r="C205" t="s" s="0">
+        <v>904</v>
+      </c>
+      <c r="D205" s="4" t="s">
+        <v>997</v>
+      </c>
+      <c r="E205" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F205" t="s" s="0">
+        <v>904</v>
+      </c>
+      <c r="K205" s="2" t="s">
+        <v>904</v>
+      </c>
+      <c r="L205" t="n" s="0">
+        <v>204.0</v>
+      </c>
+      <c r="M205" t="s" s="0">
+        <v>920</v>
+      </c>
+      <c r="N205" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A206" t="s" s="0">
         <v>1023</v>
       </c>
-      <c r="D198" t="s" s="4">
+      <c r="B206" t="s" s="0">
         <v>1024</v>
       </c>
-      <c r="E198" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="F198" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="K198" t="s" s="2">
+      <c r="C206" t="s" s="0">
+        <v>904</v>
+      </c>
+      <c r="D206" s="4" t="s">
+        <v>997</v>
+      </c>
+      <c r="E206" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F206" t="s" s="0">
+        <v>904</v>
+      </c>
+      <c r="K206" s="2" t="s">
+        <v>904</v>
+      </c>
+      <c r="L206" t="n" s="0">
+        <v>205.0</v>
+      </c>
+      <c r="M206" t="s" s="0">
+        <v>917</v>
+      </c>
+      <c r="N206" t="n" s="0">
+        <v>4192.0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A207" t="s" s="0">
         <v>1025</v>
       </c>
-      <c r="L198" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="M198" t="s" s="0">
-        <v>938</v>
-      </c>
-      <c r="N198" t="n" s="0">
+      <c r="B207" t="s" s="0">
+        <v>1026</v>
+      </c>
+      <c r="C207" t="s" s="0">
+        <v>904</v>
+      </c>
+      <c r="D207" s="4" t="s">
+        <v>997</v>
+      </c>
+      <c r="E207" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F207" t="s" s="0">
+        <v>904</v>
+      </c>
+      <c r="K207" s="2" t="s">
+        <v>904</v>
+      </c>
+      <c r="L207" t="n" s="0">
+        <v>206.0</v>
+      </c>
+      <c r="M207" t="s" s="0">
+        <v>352</v>
+      </c>
+      <c r="N207" t="n" s="0">
+        <v>5758.0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A208" t="s" s="0">
+        <v>1027</v>
+      </c>
+      <c r="B208" t="s" s="0">
+        <v>1028</v>
+      </c>
+      <c r="C208" t="s" s="0">
+        <v>904</v>
+      </c>
+      <c r="D208" s="4" t="s">
+        <v>997</v>
+      </c>
+      <c r="E208" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F208" t="s" s="0">
+        <v>904</v>
+      </c>
+      <c r="K208" s="2" t="s">
+        <v>904</v>
+      </c>
+      <c r="L208" t="n" s="0">
+        <v>207.0</v>
+      </c>
+      <c r="M208" t="s" s="0">
+        <v>920</v>
+      </c>
+      <c r="N208" t="n" s="0">
         <v>0.0</v>
       </c>
     </row>
-    <row r="202" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="D202" s="3"/>
-      <c r="K202" s="1"/>
-    </row>
-    <row r="203" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="D203" s="3"/>
-      <c r="K203" s="1"/>
-    </row>
-    <row r="204" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="D204" s="3"/>
-      <c r="K204" s="1"/>
-    </row>
-    <row r="205" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="D205" s="3"/>
-      <c r="K205" s="1"/>
-    </row>
-    <row r="206" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="D206" s="3"/>
-      <c r="K206" s="1"/>
-    </row>
-    <row r="207" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="D207" s="3"/>
-      <c r="K207" s="1"/>
-    </row>
-    <row r="208" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="D208" s="3"/>
-      <c r="K208" s="1"/>
-    </row>
-    <row r="209" spans="4:11" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="D209" s="3"/>
-      <c r="K209" s="1"/>
-    </row>
-    <row r="210" spans="4:11" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="D210" s="3"/>
-      <c r="K210" s="1"/>
-    </row>
-    <row r="211" spans="4:11" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="D211" s="3"/>
-      <c r="K211" s="1"/>
-    </row>
-    <row r="212" spans="4:11" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="D212" s="3"/>
-      <c r="K212" s="1"/>
-    </row>
-    <row r="213" spans="4:11" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="D213" s="3"/>
-      <c r="K213" s="1"/>
-    </row>
-    <row r="214" spans="4:11" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="D214" s="3"/>
-      <c r="K214" s="1"/>
-    </row>
-    <row r="215" spans="4:11" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="D215" s="3"/>
-      <c r="K215" s="1"/>
-    </row>
-    <row r="216" spans="4:11" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="D216" s="3"/>
-      <c r="K216" s="1"/>
-    </row>
-    <row r="217" spans="4:11" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="D217" s="3"/>
-      <c r="K217" s="1"/>
-    </row>
-    <row r="218" spans="4:11" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="D218" s="3"/>
-      <c r="K218" s="1"/>
-    </row>
-    <row r="219" spans="4:11" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="D219" s="3"/>
-      <c r="K219" s="1"/>
-    </row>
-    <row r="220" spans="4:11" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="D220" s="3"/>
-      <c r="K220" s="1"/>
-    </row>
-    <row r="221" spans="4:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A209" t="s" s="0">
+        <v>1030</v>
+      </c>
+      <c r="B209" t="s" s="0">
+        <v>1029</v>
+      </c>
+      <c r="C209" t="s" s="0">
+        <v>904</v>
+      </c>
+      <c r="D209" s="4" t="s">
+        <v>997</v>
+      </c>
+      <c r="E209" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F209" t="s" s="0">
+        <v>707</v>
+      </c>
+      <c r="K209" s="2" t="s">
+        <v>904</v>
+      </c>
+      <c r="L209" t="n" s="0">
+        <v>208.0</v>
+      </c>
+      <c r="M209" t="s" s="0">
+        <v>917</v>
+      </c>
+      <c r="N209" t="n" s="0">
+        <v>5367.0</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s" s="0">
+        <v>1040</v>
+      </c>
+      <c r="B210" t="s" s="0">
+        <v>996</v>
+      </c>
+      <c r="C210" t="s" s="0">
+        <v>904</v>
+      </c>
+      <c r="D210" t="s" s="4">
+        <v>1041</v>
+      </c>
+      <c r="E210" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F210" t="s" s="0">
+        <v>904</v>
+      </c>
+      <c r="K210" t="s" s="2">
+        <v>904</v>
+      </c>
+      <c r="L210" t="n" s="0">
+        <v>209.0</v>
+      </c>
+      <c r="M210" s="0"/>
+      <c r="N210" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s" s="0">
+        <v>1042</v>
+      </c>
+      <c r="B211" t="s" s="0">
+        <v>996</v>
+      </c>
+      <c r="C211" t="s" s="0">
+        <v>904</v>
+      </c>
+      <c r="D211" t="s" s="4">
+        <v>1041</v>
+      </c>
+      <c r="E211" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F211" t="s" s="0">
+        <v>904</v>
+      </c>
+      <c r="K211" t="s" s="2">
+        <v>904</v>
+      </c>
+      <c r="L211" t="n" s="0">
+        <v>210.0</v>
+      </c>
+      <c r="M211" s="0"/>
+      <c r="N211" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s" s="0">
+        <v>1043</v>
+      </c>
+      <c r="B212" t="s" s="0">
+        <v>996</v>
+      </c>
+      <c r="C212" t="s" s="0">
+        <v>904</v>
+      </c>
+      <c r="D212" t="s" s="4">
+        <v>1041</v>
+      </c>
+      <c r="E212" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F212" t="s" s="0">
+        <v>904</v>
+      </c>
+      <c r="K212" t="s" s="2">
+        <v>904</v>
+      </c>
+      <c r="L212" t="n" s="0">
+        <v>211.0</v>
+      </c>
+      <c r="M212" s="0"/>
+      <c r="N212" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s" s="0">
+        <v>1045</v>
+      </c>
+      <c r="B213" t="s" s="0">
+        <v>1046</v>
+      </c>
+      <c r="C213" t="s" s="0">
+        <v>904</v>
+      </c>
+      <c r="D213" t="s" s="4">
+        <v>1041</v>
+      </c>
+      <c r="E213" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="F213" t="s" s="0">
+        <v>904</v>
+      </c>
+      <c r="K213" t="s" s="2">
+        <v>904</v>
+      </c>
+      <c r="L213" t="n" s="0">
+        <v>212.0</v>
+      </c>
+      <c r="M213" t="s" s="0">
+        <v>352</v>
+      </c>
+      <c r="N213" t="n" s="0">
+        <v>4953.0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D221" s="3"/>
       <c r="K221" s="1"/>
     </row>
-    <row r="222" spans="4:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D222" s="3"/>
       <c r="K222" s="1"/>
     </row>
-    <row r="223" spans="4:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D223" s="3"/>
       <c r="K223" s="1"/>
     </row>
-    <row r="224" spans="4:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D224" s="3"/>
       <c r="K224" s="1"/>
     </row>
